--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1384212.666009612</v>
+        <v>1379679.01547802</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7510923.090428383</v>
+        <v>7510923.090428384</v>
       </c>
     </row>
     <row r="9">
@@ -1381,16 +1381,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I11" t="n">
-        <v>5.758835338221857</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>214.458961650487</v>
       </c>
       <c r="X11" t="n">
-        <v>164.578545861825</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>96.58461247895242</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
@@ -1460,10 +1460,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>61.38874088729703</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>195.3045055848791</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.7087253496258</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.3611507780025</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>167.9001343667533</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>193.7307735501633</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>200.2980479935615</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>402.5729276076336</v>
+        <v>358.9272818892117</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>86.80203596162582</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U14" t="n">
         <v>254.324440930408</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1691,19 +1691,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>28.53387308873248</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.813694600883</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>59.35311653050252</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>86.35704260789379</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>153.288405331309</v>
+        <v>89.45977708960403</v>
       </c>
       <c r="U15" t="n">
         <v>195.3045055848791</v>
@@ -1767,10 +1767,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>76.191250562883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.28511935522943</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>168.3611507780025</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U16" t="n">
         <v>279.9195659803985</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>170.6101964798097</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.758835338221857</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>210.9314267726901</v>
       </c>
       <c r="U17" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>202.1091469482934</v>
       </c>
       <c r="Y17" t="n">
-        <v>306.1861888801943</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>86.35704260789379</v>
+        <v>86.35704260789365</v>
       </c>
       <c r="T18" t="n">
         <v>153.288405331309</v>
@@ -1985,7 +1985,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810344</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>64.87284596620663</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H19" t="n">
         <v>139.8635808156043</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.7087253496258</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.3611507780025</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U19" t="n">
         <v>279.9195659803985</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>251.6897392407684</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>394.2826288809474</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2092,10 +2092,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>253.2848650894975</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>86.35704260789387</v>
+        <v>86.35704260789365</v>
       </c>
       <c r="T21" t="n">
-        <v>153.2884053313091</v>
+        <v>153.288405331309</v>
       </c>
       <c r="U21" t="n">
         <v>195.3045055848791</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.28511935522943</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>168.3611507780025</v>
       </c>
       <c r="T22" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V22" t="n">
-        <v>182.7570256003028</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>164.1173045072252</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2326,19 +2326,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>42.21456021982872</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.6197530438301</v>
+        <v>10.09149814814113</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5.758835338221857</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>86.80203596162582</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2484,7 +2484,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>86.66653346637311</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2496,7 +2496,7 @@
         <v>139.8635808156043</v>
       </c>
       <c r="I25" t="n">
-        <v>87.28511935522943</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.7087253496258</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.3611507780025</v>
+        <v>36.48937938081168</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2541,7 +2541,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20.42878972773345</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>61.58125845157986</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>402.5729276076336</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>86.80203596162582</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2715,16 +2715,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>109.4488823586434</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>62.1288209107889</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>96.58884370960199</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>105.9804008733688</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -3000,19 +3000,19 @@
         <v>42.7087253496258</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T31" t="n">
-        <v>136.044521591313</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>14.4133517441687</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>76.23957156710877</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.5729276076336</v>
+        <v>370.1213943998659</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.758835338221857</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>107.7834764726539</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.6502205165041</v>
@@ -3249,13 +3249,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>274.183532599576</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>343.8692278062569</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I35" t="n">
         <v>5.758835338221857</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>86.80203596162582</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>122.5374844435318</v>
       </c>
     </row>
     <row r="36">
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>86.35704260789387</v>
+        <v>86.35704260789379</v>
       </c>
       <c r="T36" t="n">
         <v>153.288405331309</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3045055848791</v>
+        <v>195.3045055848789</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3429,19 +3429,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>115.0479310121096</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>49.36341236061836</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.28511935522943</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.7087253496258</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.3611507780025</v>
@@ -3480,13 +3480,13 @@
         <v>233.1895850495404</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>346.3960276408829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I38" t="n">
-        <v>5.758835338221886</v>
+        <v>5.758835338221857</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>42.7660079492886</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>86.3570426078938</v>
+        <v>86.35704260789365</v>
       </c>
       <c r="T39" t="n">
         <v>153.288405331309</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3045055848789</v>
+        <v>195.3045055848791</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>66.96640535282079</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>139.8635808156043</v>
       </c>
       <c r="I40" t="n">
-        <v>66.40682101128189</v>
+        <v>87.28511935522943</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.70872534962582</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>163.8257694658047</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.758835338221857</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>86.80203596162582</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>83.26494773335408</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
         <v>107.8702810193205</v>
@@ -3836,7 +3836,7 @@
         <v>104.813694600883</v>
       </c>
       <c r="H42" t="n">
-        <v>59.35311653050252</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>44.58085380581284</v>
+        <v>153.288405331309</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3045055848791</v>
+        <v>26.6621827422912</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>90.25014265881373</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3918,7 +3918,7 @@
         <v>139.8635808156043</v>
       </c>
       <c r="I43" t="n">
-        <v>87.28511935522943</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.70872534962582</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.3611507780026</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T43" t="n">
         <v>233.1895850495404</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>104.3584542067159</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>323.1399854893093</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.758835338221857</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>86.80203596162582</v>
+        <v>74.58657701580782</v>
       </c>
       <c r="T44" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4067,13 +4067,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.813694600883</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>59.35311653050252</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>86.3570426078938</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>89.45977708960403</v>
       </c>
       <c r="U45" t="n">
         <v>195.3045055848791</v>
@@ -4121,7 +4121,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>121.3689264121404</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>101.3611945392942</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.28511935522943</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.3611507780026</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T46" t="n">
         <v>233.1895850495404</v>
@@ -4194,10 +4194,10 @@
         <v>279.9195659803985</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>155.90059707513</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1281.928204427769</v>
+        <v>737.9563682379969</v>
       </c>
       <c r="C11" t="n">
-        <v>1281.928204427769</v>
+        <v>737.9563682379969</v>
       </c>
       <c r="D11" t="n">
-        <v>1281.928204427769</v>
+        <v>737.9563682379969</v>
       </c>
       <c r="E11" t="n">
-        <v>867.587988944666</v>
+        <v>323.6161527548936</v>
       </c>
       <c r="F11" t="n">
-        <v>446.5575768983535</v>
+        <v>323.6161527548936</v>
       </c>
       <c r="G11" t="n">
-        <v>39.91825608256197</v>
+        <v>323.6161527548936</v>
       </c>
       <c r="H11" t="n">
-        <v>39.91825608256197</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I11" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="J11" t="n">
         <v>135.2808102736765</v>
@@ -5047,13 +5047,13 @@
         <v>307.4718418835148</v>
       </c>
       <c r="L11" t="n">
-        <v>536.0352563205417</v>
+        <v>536.0352563205422</v>
       </c>
       <c r="M11" t="n">
-        <v>803.1822165017558</v>
+        <v>803.1822165017562</v>
       </c>
       <c r="N11" t="n">
-        <v>1076.520486185677</v>
+        <v>1076.520486185678</v>
       </c>
       <c r="O11" t="n">
         <v>1329.225282482204</v>
@@ -5074,19 +5074,19 @@
         <v>1705.062534520934</v>
       </c>
       <c r="U11" t="n">
-        <v>1448.169159843754</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="V11" t="n">
-        <v>1448.169159843754</v>
+        <v>1355.224979857415</v>
       </c>
       <c r="W11" t="n">
-        <v>1448.169159843754</v>
+        <v>1138.599766069044</v>
       </c>
       <c r="X11" t="n">
-        <v>1281.928204427769</v>
+        <v>737.9563682379969</v>
       </c>
       <c r="Y11" t="n">
-        <v>1281.928204427769</v>
+        <v>737.9563682379969</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.4550047263359</v>
+        <v>405.4862957297526</v>
       </c>
       <c r="C12" t="n">
-        <v>442.4599334752816</v>
+        <v>271.4912244786983</v>
       </c>
       <c r="D12" t="n">
-        <v>325.562775694674</v>
+        <v>154.5940666980907</v>
       </c>
       <c r="E12" t="n">
-        <v>205.069959687002</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="F12" t="n">
-        <v>96.11007986950659</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="G12" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H12" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I12" t="n">
-        <v>34.10125069041868</v>
+        <v>51.48176916722374</v>
       </c>
       <c r="J12" t="n">
-        <v>86.74187521125013</v>
+        <v>104.1223936880552</v>
       </c>
       <c r="K12" t="n">
-        <v>208.3657910062591</v>
+        <v>225.7463094830642</v>
       </c>
       <c r="L12" t="n">
-        <v>390.6647842839351</v>
+        <v>408.0453027607401</v>
       </c>
       <c r="M12" t="n">
-        <v>812.6677615778663</v>
+        <v>628.6191610375386</v>
       </c>
       <c r="N12" t="n">
-        <v>1044.91505473613</v>
+        <v>860.8664541958019</v>
       </c>
       <c r="O12" t="n">
-        <v>1456.284654166836</v>
+        <v>1064.3283371885</v>
       </c>
       <c r="P12" t="n">
-        <v>1611.750860956408</v>
+        <v>1219.794543978072</v>
       </c>
       <c r="Q12" t="n">
-        <v>1695.458628495915</v>
+        <v>1641.797521272003</v>
       </c>
       <c r="R12" t="n">
         <v>1705.062534520934</v>
       </c>
       <c r="S12" t="n">
-        <v>1617.833198553364</v>
+        <v>1617.833198553365</v>
       </c>
       <c r="T12" t="n">
         <v>1462.996425491436</v>
       </c>
       <c r="U12" t="n">
-        <v>1265.719147122871</v>
+        <v>1265.719147122872</v>
       </c>
       <c r="V12" t="n">
-        <v>1265.719147122871</v>
+        <v>1052.007620115905</v>
       </c>
       <c r="W12" t="n">
-        <v>1052.4859788592</v>
+        <v>838.7744518522342</v>
       </c>
       <c r="X12" t="n">
-        <v>876.1599969980925</v>
+        <v>662.448469991127</v>
       </c>
       <c r="Y12" t="n">
-        <v>716.7580373619226</v>
+        <v>503.046510354957</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>371.5079771857771</v>
+        <v>205.1946231287022</v>
       </c>
       <c r="C13" t="n">
-        <v>200.4146047474936</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="D13" t="n">
-        <v>200.4146047474936</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="E13" t="n">
-        <v>200.4146047474936</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="F13" t="n">
-        <v>200.4146047474936</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="G13" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H13" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I13" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="J13" t="n">
-        <v>113.1139717336499</v>
+        <v>48.11260810231349</v>
       </c>
       <c r="K13" t="n">
-        <v>374.3665172177374</v>
+        <v>103.0849600006869</v>
       </c>
       <c r="L13" t="n">
-        <v>456.8240493987129</v>
+        <v>499.5216034166855</v>
       </c>
       <c r="M13" t="n">
-        <v>878.827026692644</v>
+        <v>921.5245807106168</v>
       </c>
       <c r="N13" t="n">
-        <v>982.7844340141144</v>
+        <v>1342.902077156918</v>
       </c>
       <c r="O13" t="n">
-        <v>1372.155293617681</v>
+        <v>1633.052777090799</v>
       </c>
       <c r="P13" t="n">
         <v>1688.905827537375</v>
@@ -5223,28 +5223,28 @@
         <v>1705.062534520934</v>
       </c>
       <c r="R13" t="n">
-        <v>1661.92240790515</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S13" t="n">
-        <v>1491.860639442521</v>
+        <v>1535.000766058306</v>
       </c>
       <c r="T13" t="n">
-        <v>1491.860639442521</v>
+        <v>1299.455730654729</v>
       </c>
       <c r="U13" t="n">
-        <v>1491.860639442521</v>
+        <v>1129.859635334777</v>
       </c>
       <c r="V13" t="n">
-        <v>1217.974894382043</v>
+        <v>855.9738902742986</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.287244331373</v>
+        <v>855.9738902742986</v>
       </c>
       <c r="X13" t="n">
-        <v>783.9433821910568</v>
+        <v>617.6300281339819</v>
       </c>
       <c r="Y13" t="n">
-        <v>559.2076835798215</v>
+        <v>392.8943295227466</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1047.525762012707</v>
+        <v>396.6540606795214</v>
       </c>
       <c r="C14" t="n">
-        <v>1047.525762012707</v>
+        <v>396.6540606795214</v>
       </c>
       <c r="D14" t="n">
-        <v>643.0618321057673</v>
+        <v>396.6540606795214</v>
       </c>
       <c r="E14" t="n">
-        <v>440.7405715062102</v>
+        <v>396.6540606795214</v>
       </c>
       <c r="F14" t="n">
-        <v>440.7405715062102</v>
+        <v>396.6540606795214</v>
       </c>
       <c r="G14" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H14" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I14" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="J14" t="n">
         <v>135.2808102736765</v>
@@ -5305,25 +5305,25 @@
         <v>1705.062534520934</v>
       </c>
       <c r="S14" t="n">
-        <v>1705.062534520934</v>
+        <v>1617.383710317272</v>
       </c>
       <c r="T14" t="n">
-        <v>1705.062534520934</v>
+        <v>1404.32166307213</v>
       </c>
       <c r="U14" t="n">
-        <v>1448.169159843754</v>
+        <v>1147.428288394951</v>
       </c>
       <c r="V14" t="n">
-        <v>1448.169159843754</v>
+        <v>797.5907337314313</v>
       </c>
       <c r="W14" t="n">
-        <v>1448.169159843754</v>
+        <v>797.5907337314313</v>
       </c>
       <c r="X14" t="n">
-        <v>1047.525762012707</v>
+        <v>797.5907337314313</v>
       </c>
       <c r="Y14" t="n">
-        <v>1047.525762012707</v>
+        <v>396.6540606795214</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>362.7434777193699</v>
+        <v>514.446175547248</v>
       </c>
       <c r="C15" t="n">
-        <v>228.7484064683156</v>
+        <v>380.4511042961937</v>
       </c>
       <c r="D15" t="n">
-        <v>199.9263124392929</v>
+        <v>263.5539465155861</v>
       </c>
       <c r="E15" t="n">
-        <v>199.9263124392929</v>
+        <v>143.0611305079141</v>
       </c>
       <c r="F15" t="n">
-        <v>199.9263124392929</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="G15" t="n">
-        <v>94.05389365052224</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H15" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I15" t="n">
-        <v>51.48176916722373</v>
+        <v>51.48176916722374</v>
       </c>
       <c r="J15" t="n">
-        <v>104.1223936880552</v>
+        <v>347.7907976626885</v>
       </c>
       <c r="K15" t="n">
-        <v>225.7463094830642</v>
+        <v>529.7329099844202</v>
       </c>
       <c r="L15" t="n">
-        <v>408.0453027607401</v>
+        <v>712.0319032620961</v>
       </c>
       <c r="M15" t="n">
-        <v>830.0482800546713</v>
+        <v>932.6057615388945</v>
       </c>
       <c r="N15" t="n">
-        <v>1062.295573212935</v>
+        <v>1164.853054697158</v>
       </c>
       <c r="O15" t="n">
         <v>1368.314937689855</v>
       </c>
       <c r="P15" t="n">
-        <v>1523.781144479427</v>
+        <v>1523.781144479428</v>
       </c>
       <c r="Q15" t="n">
-        <v>1607.488912018934</v>
+        <v>1607.488912018935</v>
       </c>
       <c r="R15" t="n">
         <v>1705.062534520934</v>
       </c>
       <c r="S15" t="n">
-        <v>1617.833198553364</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="T15" t="n">
-        <v>1462.996425491436</v>
+        <v>1614.699123319314</v>
       </c>
       <c r="U15" t="n">
-        <v>1265.719147122871</v>
+        <v>1417.421844950749</v>
       </c>
       <c r="V15" t="n">
-        <v>1052.007620115905</v>
+        <v>1203.710317943783</v>
       </c>
       <c r="W15" t="n">
-        <v>838.7744518522337</v>
+        <v>990.4771496801118</v>
       </c>
       <c r="X15" t="n">
-        <v>662.4484699911266</v>
+        <v>814.1511678190046</v>
       </c>
       <c r="Y15" t="n">
-        <v>503.0465103549566</v>
+        <v>654.7492081828346</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>511.5986137688201</v>
+        <v>193.5958953675087</v>
       </c>
       <c r="C16" t="n">
-        <v>340.5052413305366</v>
+        <v>193.5958953675087</v>
       </c>
       <c r="D16" t="n">
-        <v>340.5052413305366</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="E16" t="n">
-        <v>340.5052413305366</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="F16" t="n">
-        <v>340.5052413305366</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="G16" t="n">
-        <v>263.5443821761093</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H16" t="n">
-        <v>122.2680379179232</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I16" t="n">
-        <v>34.10125069041868</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="J16" t="n">
         <v>113.1139717336499</v>
       </c>
       <c r="K16" t="n">
-        <v>374.3665172177374</v>
+        <v>192.6655995439049</v>
       </c>
       <c r="L16" t="n">
-        <v>770.8031606337361</v>
+        <v>589.1022429599035</v>
       </c>
       <c r="M16" t="n">
-        <v>859.062671540192</v>
+        <v>1011.105220253835</v>
       </c>
       <c r="N16" t="n">
-        <v>948.405866538908</v>
+        <v>1432.482716700136</v>
       </c>
       <c r="O16" t="n">
-        <v>1245.881333411844</v>
+        <v>1506.778816884962</v>
       </c>
       <c r="P16" t="n">
         <v>1562.631867331538</v>
@@ -5463,25 +5463,25 @@
         <v>1705.062534520934</v>
       </c>
       <c r="S16" t="n">
-        <v>1535.000766058305</v>
+        <v>1535.000766058306</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.000766058305</v>
+        <v>1299.455730654729</v>
       </c>
       <c r="U16" t="n">
-        <v>1252.253729714468</v>
+        <v>1016.708694310892</v>
       </c>
       <c r="V16" t="n">
-        <v>978.3679846539901</v>
+        <v>844.3751625131049</v>
       </c>
       <c r="W16" t="n">
-        <v>699.2983201628645</v>
+        <v>844.3751625131049</v>
       </c>
       <c r="X16" t="n">
-        <v>699.2983201628645</v>
+        <v>606.0313003727883</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.2983201628645</v>
+        <v>381.295601761553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>866.0757510023798</v>
+        <v>450.8623443482107</v>
       </c>
       <c r="C17" t="n">
-        <v>866.0757510023798</v>
+        <v>450.8623443482107</v>
       </c>
       <c r="D17" t="n">
-        <v>461.6118210954403</v>
+        <v>46.3984144412712</v>
       </c>
       <c r="E17" t="n">
-        <v>461.6118210954403</v>
+        <v>46.3984144412712</v>
       </c>
       <c r="F17" t="n">
-        <v>40.58140904912791</v>
+        <v>46.3984144412712</v>
       </c>
       <c r="G17" t="n">
-        <v>40.58140904912791</v>
+        <v>46.3984144412712</v>
       </c>
       <c r="H17" t="n">
-        <v>40.58140904912791</v>
+        <v>46.3984144412712</v>
       </c>
       <c r="I17" t="n">
         <v>40.58140904912791</v>
       </c>
       <c r="J17" t="n">
-        <v>141.7609686323857</v>
+        <v>459.2887282091377</v>
       </c>
       <c r="K17" t="n">
-        <v>313.952000242224</v>
+        <v>631.479759818976</v>
       </c>
       <c r="L17" t="n">
-        <v>542.5154146792511</v>
+        <v>860.0431742560031</v>
       </c>
       <c r="M17" t="n">
-        <v>809.6623748604652</v>
+        <v>1127.190134437217</v>
       </c>
       <c r="N17" t="n">
-        <v>1273.532737044998</v>
+        <v>1400.528404121139</v>
       </c>
       <c r="O17" t="n">
-        <v>1526.237533341524</v>
+        <v>1653.233200417665</v>
       </c>
       <c r="P17" t="n">
-        <v>1727.94232510064</v>
+        <v>1854.937992176781</v>
       </c>
       <c r="Q17" t="n">
-        <v>1859.904261137919</v>
+        <v>1986.89992821406</v>
       </c>
       <c r="R17" t="n">
         <v>2029.070452456395</v>
@@ -5548,19 +5548,19 @@
         <v>1816.008405211254</v>
       </c>
       <c r="U17" t="n">
-        <v>1559.115030534074</v>
+        <v>1816.008405211254</v>
       </c>
       <c r="V17" t="n">
-        <v>1559.115030534074</v>
+        <v>1466.170850547735</v>
       </c>
       <c r="W17" t="n">
-        <v>1175.354729669243</v>
+        <v>1466.170850547735</v>
       </c>
       <c r="X17" t="n">
-        <v>1175.354729669243</v>
+        <v>1262.02019706461</v>
       </c>
       <c r="Y17" t="n">
-        <v>866.0757510023798</v>
+        <v>861.0835240127001</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>315.3663506154976</v>
       </c>
       <c r="F18" t="n">
-        <v>206.4064707980021</v>
+        <v>206.4064707980022</v>
       </c>
       <c r="G18" t="n">
         <v>100.5340520092315</v>
@@ -5597,25 +5597,25 @@
         <v>336.8904375445927</v>
       </c>
       <c r="K18" t="n">
-        <v>535.7403873930886</v>
+        <v>458.5143533396017</v>
       </c>
       <c r="L18" t="n">
-        <v>718.0393806707644</v>
+        <v>640.8133466172776</v>
       </c>
       <c r="M18" t="n">
-        <v>938.6132389475629</v>
+        <v>861.387204894076</v>
       </c>
       <c r="N18" t="n">
-        <v>1170.860532105826</v>
+        <v>1093.634498052339</v>
       </c>
       <c r="O18" t="n">
-        <v>1374.322415098524</v>
+        <v>1297.096381045037</v>
       </c>
       <c r="P18" t="n">
-        <v>1529.788621888096</v>
+        <v>1452.562587834609</v>
       </c>
       <c r="Q18" t="n">
-        <v>2019.466546431377</v>
+        <v>1942.24051237789</v>
       </c>
       <c r="R18" t="n">
         <v>2029.070452456395</v>
@@ -5624,19 +5624,19 @@
         <v>1941.841116488826</v>
       </c>
       <c r="T18" t="n">
-        <v>1787.004343426897</v>
+        <v>1787.004343426898</v>
       </c>
       <c r="U18" t="n">
         <v>1589.727065058333</v>
       </c>
       <c r="V18" t="n">
-        <v>1376.015538051366</v>
+        <v>1376.015538051367</v>
       </c>
       <c r="W18" t="n">
         <v>1162.782369787695</v>
       </c>
       <c r="X18" t="n">
-        <v>986.456387926588</v>
+        <v>986.4563879265881</v>
       </c>
       <c r="Y18" t="n">
         <v>827.0544282904181</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>766.6598539941913</v>
+        <v>927.8367268389475</v>
       </c>
       <c r="C19" t="n">
-        <v>595.5664815559078</v>
+        <v>756.743354400664</v>
       </c>
       <c r="D19" t="n">
-        <v>595.5664815559078</v>
+        <v>597.2487097235739</v>
       </c>
       <c r="E19" t="n">
-        <v>434.6556664242273</v>
+        <v>436.3378945918934</v>
       </c>
       <c r="F19" t="n">
-        <v>270.0245405348185</v>
+        <v>436.3378945918934</v>
       </c>
       <c r="G19" t="n">
         <v>270.0245405348185</v>
@@ -5673,22 +5673,22 @@
         <v>40.58140904912791</v>
       </c>
       <c r="J19" t="n">
-        <v>54.59276646102271</v>
+        <v>119.5941300923591</v>
       </c>
       <c r="K19" t="n">
-        <v>315.8453119451102</v>
+        <v>380.8466755764466</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1889950825328</v>
+        <v>777.2833189924452</v>
       </c>
       <c r="M19" t="n">
-        <v>885.4148555032742</v>
+        <v>1210.509179413187</v>
       </c>
       <c r="N19" t="n">
-        <v>1306.792351949576</v>
+        <v>1631.886675859488</v>
       </c>
       <c r="O19" t="n">
-        <v>1696.163211553142</v>
+        <v>1706.182776044314</v>
       </c>
       <c r="P19" t="n">
         <v>2012.913745472836</v>
@@ -5697,28 +5697,28 @@
         <v>2029.070452456395</v>
       </c>
       <c r="R19" t="n">
-        <v>1985.930325840612</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="S19" t="n">
-        <v>1815.868557377983</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="T19" t="n">
-        <v>1815.868557377983</v>
+        <v>1793.525417052819</v>
       </c>
       <c r="U19" t="n">
-        <v>1533.121521034146</v>
+        <v>1510.778380708982</v>
       </c>
       <c r="V19" t="n">
-        <v>1259.235775973668</v>
+        <v>1510.778380708982</v>
       </c>
       <c r="W19" t="n">
-        <v>1005.003716134508</v>
+        <v>1231.708716217857</v>
       </c>
       <c r="X19" t="n">
-        <v>766.6598539941913</v>
+        <v>993.36485407754</v>
       </c>
       <c r="Y19" t="n">
-        <v>766.6598539941913</v>
+        <v>993.36485407754</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1684.498253575553</v>
+        <v>1531.170448588243</v>
       </c>
       <c r="C20" t="n">
-        <v>1286.232971877626</v>
+        <v>1121.045857901514</v>
       </c>
       <c r="D20" t="n">
-        <v>881.7690419706869</v>
+        <v>716.581927994574</v>
       </c>
       <c r="E20" t="n">
-        <v>467.4288264875836</v>
+        <v>302.2417125114707</v>
       </c>
       <c r="F20" t="n">
-        <v>46.3984144412712</v>
+        <v>302.2417125114707</v>
       </c>
       <c r="G20" t="n">
         <v>46.3984144412712</v>
@@ -5755,25 +5755,25 @@
         <v>141.7609686323857</v>
       </c>
       <c r="K20" t="n">
-        <v>313.952000242224</v>
+        <v>631.479759818976</v>
       </c>
       <c r="L20" t="n">
-        <v>542.5154146792511</v>
+        <v>860.0431742560031</v>
       </c>
       <c r="M20" t="n">
-        <v>809.6623748604652</v>
+        <v>1127.190134437217</v>
       </c>
       <c r="N20" t="n">
-        <v>1083.000644544387</v>
+        <v>1400.528404121139</v>
       </c>
       <c r="O20" t="n">
-        <v>1526.237533341524</v>
+        <v>1653.233200417665</v>
       </c>
       <c r="P20" t="n">
-        <v>1727.94232510064</v>
+        <v>1854.937992176781</v>
       </c>
       <c r="Q20" t="n">
-        <v>1859.904261137919</v>
+        <v>1986.89992821406</v>
       </c>
       <c r="R20" t="n">
         <v>2029.070452456395</v>
@@ -5785,19 +5785,19 @@
         <v>1941.391628252733</v>
       </c>
       <c r="U20" t="n">
-        <v>1684.498253575553</v>
+        <v>1941.391628252733</v>
       </c>
       <c r="V20" t="n">
-        <v>1684.498253575553</v>
+        <v>1941.391628252733</v>
       </c>
       <c r="W20" t="n">
-        <v>1684.498253575553</v>
+        <v>1941.391628252733</v>
       </c>
       <c r="X20" t="n">
-        <v>1684.498253575553</v>
+        <v>1941.391628252733</v>
       </c>
       <c r="Y20" t="n">
-        <v>1684.498253575553</v>
+        <v>1941.391628252733</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>315.3663506154976</v>
       </c>
       <c r="F21" t="n">
-        <v>206.4064707980022</v>
+        <v>206.4064707980021</v>
       </c>
       <c r="G21" t="n">
         <v>100.5340520092315</v>
@@ -5834,25 +5834,25 @@
         <v>93.22203356995936</v>
       </c>
       <c r="K21" t="n">
-        <v>214.8459493649684</v>
+        <v>595.4169705529172</v>
       </c>
       <c r="L21" t="n">
-        <v>397.1449426426443</v>
+        <v>777.7159638305931</v>
       </c>
       <c r="M21" t="n">
-        <v>617.7188009194427</v>
+        <v>998.2898221073915</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.890815628845</v>
+        <v>1230.537115265655</v>
       </c>
       <c r="O21" t="n">
-        <v>1286.352698621543</v>
+        <v>1433.998998258352</v>
       </c>
       <c r="P21" t="n">
-        <v>1441.818905411115</v>
+        <v>1935.75877889187</v>
       </c>
       <c r="Q21" t="n">
-        <v>1931.496829954396</v>
+        <v>2019.466546431377</v>
       </c>
       <c r="R21" t="n">
         <v>2029.070452456395</v>
@@ -5861,19 +5861,19 @@
         <v>1941.841116488826</v>
       </c>
       <c r="T21" t="n">
-        <v>1787.004343426897</v>
+        <v>1787.004343426898</v>
       </c>
       <c r="U21" t="n">
         <v>1589.727065058333</v>
       </c>
       <c r="V21" t="n">
-        <v>1376.015538051366</v>
+        <v>1376.015538051367</v>
       </c>
       <c r="W21" t="n">
         <v>1162.782369787695</v>
       </c>
       <c r="X21" t="n">
-        <v>986.4563879265879</v>
+        <v>986.456387926588</v>
       </c>
       <c r="Y21" t="n">
         <v>827.0544282904181</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7113671855907</v>
+        <v>619.187320900206</v>
       </c>
       <c r="C22" t="n">
-        <v>525.6179947473072</v>
+        <v>619.187320900206</v>
       </c>
       <c r="D22" t="n">
-        <v>366.1233500702172</v>
+        <v>459.692676223116</v>
       </c>
       <c r="E22" t="n">
-        <v>205.2125349385366</v>
+        <v>459.692676223116</v>
       </c>
       <c r="F22" t="n">
-        <v>40.58140904912791</v>
+        <v>295.0615503337073</v>
       </c>
       <c r="G22" t="n">
-        <v>40.58140904912791</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="H22" t="n">
-        <v>40.58140904912791</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="I22" t="n">
         <v>40.58140904912791</v>
       </c>
       <c r="J22" t="n">
-        <v>54.59276646102271</v>
+        <v>119.5941300923591</v>
       </c>
       <c r="K22" t="n">
-        <v>109.5651183593961</v>
+        <v>380.8466755764466</v>
       </c>
       <c r="L22" t="n">
-        <v>325.9150348766958</v>
+        <v>777.2833189924452</v>
       </c>
       <c r="M22" t="n">
-        <v>759.1408952974372</v>
+        <v>865.5428298989011</v>
       </c>
       <c r="N22" t="n">
-        <v>1180.518391743739</v>
+        <v>1286.920326345203</v>
       </c>
       <c r="O22" t="n">
         <v>1569.889251347305</v>
@@ -5940,22 +5940,22 @@
         <v>1859.008683993766</v>
       </c>
       <c r="T22" t="n">
-        <v>1623.46364859019</v>
+        <v>1859.008683993766</v>
       </c>
       <c r="U22" t="n">
-        <v>1623.46364859019</v>
+        <v>1576.26164764993</v>
       </c>
       <c r="V22" t="n">
-        <v>1438.860592428268</v>
+        <v>1302.375902589451</v>
       </c>
       <c r="W22" t="n">
-        <v>1159.790927937143</v>
+        <v>1023.306238098326</v>
       </c>
       <c r="X22" t="n">
-        <v>921.447065796826</v>
+        <v>784.9623759580093</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.7113671855907</v>
+        <v>619.187320900206</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1617.567811307619</v>
+        <v>1294.732180625929</v>
       </c>
       <c r="C23" t="n">
-        <v>1207.443220620889</v>
+        <v>884.6075899391991</v>
       </c>
       <c r="D23" t="n">
-        <v>802.9792907139495</v>
+        <v>480.1436600322596</v>
       </c>
       <c r="E23" t="n">
-        <v>802.9792907139495</v>
+        <v>65.80344454915632</v>
       </c>
       <c r="F23" t="n">
-        <v>381.948878667637</v>
+        <v>65.80344454915632</v>
       </c>
       <c r="G23" t="n">
-        <v>339.3079087486181</v>
+        <v>65.80344454915632</v>
       </c>
       <c r="H23" t="n">
-        <v>49.7930066841432</v>
+        <v>55.61001207628649</v>
       </c>
       <c r="I23" t="n">
         <v>49.7930066841432</v>
@@ -5992,49 +5992,49 @@
         <v>477.7483931551302</v>
       </c>
       <c r="K23" t="n">
-        <v>681.7651684192882</v>
+        <v>649.9394247649685</v>
       </c>
       <c r="L23" t="n">
-        <v>910.3285828563153</v>
+        <v>878.5028392019956</v>
       </c>
       <c r="M23" t="n">
-        <v>1177.475543037529</v>
+        <v>1145.64979938321</v>
       </c>
       <c r="N23" t="n">
-        <v>1450.813812721451</v>
+        <v>1418.988069067131</v>
       </c>
       <c r="O23" t="n">
-        <v>1703.518609017977</v>
+        <v>1671.692865363657</v>
       </c>
       <c r="P23" t="n">
-        <v>1905.223400777093</v>
+        <v>1873.397657122773</v>
       </c>
       <c r="Q23" t="n">
-        <v>2447.479809964825</v>
+        <v>2415.654066310505</v>
       </c>
       <c r="R23" t="n">
         <v>2489.65033420716</v>
       </c>
       <c r="S23" t="n">
-        <v>2401.971510003498</v>
+        <v>2489.65033420716</v>
       </c>
       <c r="T23" t="n">
-        <v>2401.971510003498</v>
+        <v>2489.65033420716</v>
       </c>
       <c r="U23" t="n">
-        <v>2401.971510003498</v>
+        <v>2489.65033420716</v>
       </c>
       <c r="V23" t="n">
-        <v>2401.971510003498</v>
+        <v>2489.65033420716</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.211209138666</v>
+        <v>2105.890033342328</v>
       </c>
       <c r="X23" t="n">
-        <v>1617.567811307619</v>
+        <v>2105.890033342328</v>
       </c>
       <c r="Y23" t="n">
-        <v>1617.567811307619</v>
+        <v>1704.953360290418</v>
       </c>
     </row>
     <row r="24">
@@ -6074,22 +6074,22 @@
         <v>467.725950974617</v>
       </c>
       <c r="L24" t="n">
-        <v>1083.914408690889</v>
+        <v>650.0249442522929</v>
       </c>
       <c r="M24" t="n">
-        <v>1353.794993586352</v>
+        <v>870.5988025290914</v>
       </c>
       <c r="N24" t="n">
-        <v>1586.042286744615</v>
+        <v>1102.846095687355</v>
       </c>
       <c r="O24" t="n">
-        <v>1789.504169737313</v>
+        <v>1306.307978680052</v>
       </c>
       <c r="P24" t="n">
-        <v>1944.970376526885</v>
+        <v>1461.774185469625</v>
       </c>
       <c r="Q24" t="n">
-        <v>2028.678144066392</v>
+        <v>1951.452110012905</v>
       </c>
       <c r="R24" t="n">
         <v>2038.282050091411</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1028.310588228027</v>
+        <v>1013.512663135867</v>
       </c>
       <c r="C25" t="n">
-        <v>857.2172157897439</v>
+        <v>842.4192906975836</v>
       </c>
       <c r="D25" t="n">
-        <v>697.7225711126539</v>
+        <v>682.9246460204936</v>
       </c>
       <c r="E25" t="n">
-        <v>610.1806181163174</v>
+        <v>522.013830888813</v>
       </c>
       <c r="F25" t="n">
-        <v>445.5494922269087</v>
+        <v>357.3827049994043</v>
       </c>
       <c r="G25" t="n">
-        <v>279.2361381698338</v>
+        <v>191.0693509423294</v>
       </c>
       <c r="H25" t="n">
-        <v>137.9597939116477</v>
+        <v>49.7930066841432</v>
       </c>
       <c r="I25" t="n">
         <v>49.7930066841432</v>
       </c>
       <c r="J25" t="n">
-        <v>128.8057277273742</v>
+        <v>128.8057277273743</v>
       </c>
       <c r="K25" t="n">
-        <v>390.0582732114618</v>
+        <v>390.0582732114619</v>
       </c>
       <c r="L25" t="n">
-        <v>786.4949166274604</v>
+        <v>786.4949166274605</v>
       </c>
       <c r="M25" t="n">
         <v>1219.720777048202</v>
@@ -6171,28 +6171,28 @@
         <v>2489.65033420716</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.510207591376</v>
+        <v>2489.65033420716</v>
       </c>
       <c r="S25" t="n">
-        <v>2276.448439128748</v>
+        <v>2452.792375236643</v>
       </c>
       <c r="T25" t="n">
-        <v>2276.448439128748</v>
+        <v>2217.247339833067</v>
       </c>
       <c r="U25" t="n">
-        <v>1993.701402784911</v>
+        <v>2217.247339833067</v>
       </c>
       <c r="V25" t="n">
-        <v>1719.815657724433</v>
+        <v>1943.361594772589</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.745993233307</v>
+        <v>1664.291930281463</v>
       </c>
       <c r="X25" t="n">
-        <v>1440.745993233307</v>
+        <v>1425.948068141147</v>
       </c>
       <c r="Y25" t="n">
-        <v>1216.010294622072</v>
+        <v>1201.212369529911</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1980.692971033326</v>
+        <v>1234.997938368097</v>
       </c>
       <c r="C26" t="n">
-        <v>1570.568380346596</v>
+        <v>1234.997938368097</v>
       </c>
       <c r="D26" t="n">
-        <v>1166.104450439656</v>
+        <v>1234.997938368097</v>
       </c>
       <c r="E26" t="n">
-        <v>751.7642349565529</v>
+        <v>1172.794647002865</v>
       </c>
       <c r="F26" t="n">
         <v>751.7642349565529</v>
@@ -6229,49 +6229,49 @@
         <v>477.7483931551302</v>
       </c>
       <c r="K26" t="n">
-        <v>743.0181440346825</v>
+        <v>965.0639744935996</v>
       </c>
       <c r="L26" t="n">
-        <v>971.5815584717095</v>
+        <v>1193.627388930627</v>
       </c>
       <c r="M26" t="n">
-        <v>1587.770016187982</v>
+        <v>1460.774349111841</v>
       </c>
       <c r="N26" t="n">
-        <v>1861.108285871903</v>
+        <v>1734.112618795762</v>
       </c>
       <c r="O26" t="n">
-        <v>2113.813082168429</v>
+        <v>1986.817415092288</v>
       </c>
       <c r="P26" t="n">
-        <v>2315.517873927546</v>
+        <v>2188.522206851404</v>
       </c>
       <c r="Q26" t="n">
-        <v>2447.479809964825</v>
+        <v>2320.484142888684</v>
       </c>
       <c r="R26" t="n">
         <v>2489.65033420716</v>
       </c>
       <c r="S26" t="n">
-        <v>2401.971510003498</v>
+        <v>2489.65033420716</v>
       </c>
       <c r="T26" t="n">
-        <v>2401.971510003498</v>
+        <v>2276.588286962019</v>
       </c>
       <c r="U26" t="n">
-        <v>2401.971510003498</v>
+        <v>2019.694912284839</v>
       </c>
       <c r="V26" t="n">
-        <v>2401.971510003498</v>
+        <v>2019.694912284839</v>
       </c>
       <c r="W26" t="n">
-        <v>2401.971510003498</v>
+        <v>1635.934611420008</v>
       </c>
       <c r="X26" t="n">
-        <v>2001.32811217245</v>
+        <v>1635.934611420008</v>
       </c>
       <c r="Y26" t="n">
-        <v>2001.32811217245</v>
+        <v>1234.997938368097</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>49.7930066841432</v>
       </c>
       <c r="J27" t="n">
-        <v>102.4336312049747</v>
+        <v>346.102035179608</v>
       </c>
       <c r="K27" t="n">
-        <v>224.0575469999837</v>
+        <v>467.725950974617</v>
       </c>
       <c r="L27" t="n">
-        <v>406.3565402776596</v>
+        <v>650.0249442522929</v>
       </c>
       <c r="M27" t="n">
-        <v>626.9303985544581</v>
+        <v>870.5988025290914</v>
       </c>
       <c r="N27" t="n">
-        <v>859.1776917127214</v>
+        <v>1102.846095687355</v>
       </c>
       <c r="O27" t="n">
-        <v>1383.534012733539</v>
+        <v>1306.307978680052</v>
       </c>
       <c r="P27" t="n">
-        <v>1539.000219523111</v>
+        <v>1461.774185469625</v>
       </c>
       <c r="Q27" t="n">
-        <v>2028.678144066392</v>
+        <v>1951.452110012905</v>
       </c>
       <c r="R27" t="n">
         <v>2038.282050091411</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>770.7349704168878</v>
+        <v>554.4216906841349</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6415979786043</v>
+        <v>443.8672640592425</v>
       </c>
       <c r="D28" t="n">
-        <v>440.1469533015143</v>
+        <v>443.8672640592425</v>
       </c>
       <c r="E28" t="n">
-        <v>279.2361381698338</v>
+        <v>443.8672640592425</v>
       </c>
       <c r="F28" t="n">
         <v>279.2361381698338</v>
@@ -6384,7 +6384,7 @@
         <v>49.7930066841432</v>
       </c>
       <c r="J28" t="n">
-        <v>128.8057277273744</v>
+        <v>128.8057277273743</v>
       </c>
       <c r="K28" t="n">
         <v>390.0582732114619</v>
@@ -6423,13 +6423,13 @@
         <v>1484.270622320857</v>
       </c>
       <c r="W28" t="n">
-        <v>1421.514237562484</v>
+        <v>1205.200957829731</v>
       </c>
       <c r="X28" t="n">
-        <v>1183.170375422168</v>
+        <v>966.8570956894146</v>
       </c>
       <c r="Y28" t="n">
-        <v>958.4346768109322</v>
+        <v>742.1213970781793</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1991.442447780555</v>
+        <v>1571.441571517661</v>
       </c>
       <c r="C29" t="n">
-        <v>1581.317857093825</v>
+        <v>1571.441571517661</v>
       </c>
       <c r="D29" t="n">
-        <v>1581.317857093825</v>
+        <v>1166.977641610722</v>
       </c>
       <c r="E29" t="n">
         <v>1166.977641610722</v>
@@ -6457,58 +6457,58 @@
         <v>339.3079087486181</v>
       </c>
       <c r="H29" t="n">
-        <v>49.7930066841432</v>
+        <v>49.79300668414322</v>
       </c>
       <c r="I29" t="n">
-        <v>49.7930066841432</v>
+        <v>49.79300668414322</v>
       </c>
       <c r="J29" t="n">
-        <v>150.972566267401</v>
+        <v>477.7483931551302</v>
       </c>
       <c r="K29" t="n">
-        <v>338.9149803869378</v>
+        <v>649.9394247649685</v>
       </c>
       <c r="L29" t="n">
-        <v>567.4783948239649</v>
+        <v>878.5028392019956</v>
       </c>
       <c r="M29" t="n">
-        <v>834.625355005179</v>
+        <v>1145.64979938321</v>
       </c>
       <c r="N29" t="n">
-        <v>1450.813812721451</v>
+        <v>1418.988069067131</v>
       </c>
       <c r="O29" t="n">
-        <v>1703.518609017977</v>
+        <v>1671.692865363657</v>
       </c>
       <c r="P29" t="n">
-        <v>1905.223400777093</v>
+        <v>1873.397657122773</v>
       </c>
       <c r="Q29" t="n">
-        <v>2447.479809964825</v>
+        <v>2320.484142888684</v>
       </c>
       <c r="R29" t="n">
-        <v>2489.65033420716</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="S29" t="n">
-        <v>2489.65033420716</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="T29" t="n">
-        <v>2392.085845611603</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="U29" t="n">
-        <v>2392.085845611603</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="V29" t="n">
-        <v>2392.085845611603</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="W29" t="n">
-        <v>2392.085845611603</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="X29" t="n">
-        <v>1991.442447780555</v>
+        <v>2382.599424234061</v>
       </c>
       <c r="Y29" t="n">
-        <v>1991.442447780555</v>
+        <v>1981.662751182151</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>324.5779482505129</v>
       </c>
       <c r="F30" t="n">
-        <v>215.6180684330174</v>
+        <v>215.6180684330175</v>
       </c>
       <c r="G30" t="n">
         <v>109.7456496442468</v>
       </c>
       <c r="H30" t="n">
-        <v>49.7930066841432</v>
+        <v>49.79300668414322</v>
       </c>
       <c r="I30" t="n">
-        <v>49.7930066841432</v>
+        <v>67.17352516094826</v>
       </c>
       <c r="J30" t="n">
-        <v>102.4336312049747</v>
+        <v>363.482553656413</v>
       </c>
       <c r="K30" t="n">
-        <v>718.6220889212467</v>
+        <v>862.9524255548963</v>
       </c>
       <c r="L30" t="n">
-        <v>900.9210821989226</v>
+        <v>1045.251418832572</v>
       </c>
       <c r="M30" t="n">
-        <v>1121.494940475721</v>
+        <v>1265.825277109371</v>
       </c>
       <c r="N30" t="n">
-        <v>1353.742233633984</v>
+        <v>1498.072570267634</v>
       </c>
       <c r="O30" t="n">
-        <v>1557.204116626682</v>
+        <v>1701.534453260332</v>
       </c>
       <c r="P30" t="n">
         <v>1857.000660049904</v>
@@ -6612,19 +6612,19 @@
         <v>445.5494922269087</v>
       </c>
       <c r="G31" t="n">
-        <v>279.2361381698338</v>
+        <v>279.2361381698339</v>
       </c>
       <c r="H31" t="n">
         <v>137.9597939116477</v>
       </c>
       <c r="I31" t="n">
-        <v>49.7930066841432</v>
+        <v>49.79300668414322</v>
       </c>
       <c r="J31" t="n">
         <v>128.8057277273742</v>
       </c>
       <c r="K31" t="n">
-        <v>390.0582732114617</v>
+        <v>390.0582732114622</v>
       </c>
       <c r="L31" t="n">
         <v>786.4949166274605</v>
@@ -6642,22 +6642,22 @@
         <v>2347.219667017764</v>
       </c>
       <c r="Q31" t="n">
-        <v>2489.65033420716</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.510207591376</v>
+        <v>2446.510207591377</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.510207591376</v>
+        <v>2276.448439128748</v>
       </c>
       <c r="T31" t="n">
-        <v>2309.091498913283</v>
+        <v>2040.903403725172</v>
       </c>
       <c r="U31" t="n">
-        <v>2026.344462569446</v>
+        <v>2040.903403725172</v>
       </c>
       <c r="V31" t="n">
-        <v>1752.458717508968</v>
+        <v>1767.017658664694</v>
       </c>
       <c r="W31" t="n">
         <v>1752.458717508968</v>
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>954.4724077958521</v>
+        <v>2079.42915454267</v>
       </c>
       <c r="C32" t="n">
-        <v>954.4724077958521</v>
+        <v>1669.304563855941</v>
       </c>
       <c r="D32" t="n">
-        <v>877.4627395462472</v>
+        <v>1264.840633949001</v>
       </c>
       <c r="E32" t="n">
-        <v>877.4627395462472</v>
+        <v>850.5004184658978</v>
       </c>
       <c r="F32" t="n">
-        <v>456.4323274999348</v>
+        <v>429.4700064195854</v>
       </c>
       <c r="G32" t="n">
-        <v>49.7930066841432</v>
+        <v>55.61001207628649</v>
       </c>
       <c r="H32" t="n">
-        <v>49.7930066841432</v>
+        <v>55.61001207628649</v>
       </c>
       <c r="I32" t="n">
         <v>49.7930066841432</v>
       </c>
       <c r="J32" t="n">
-        <v>477.7483931551302</v>
+        <v>150.972566267401</v>
       </c>
       <c r="K32" t="n">
-        <v>649.9394247649685</v>
+        <v>704.4345982904954</v>
       </c>
       <c r="L32" t="n">
-        <v>878.5028392019956</v>
+        <v>1320.623056006767</v>
       </c>
       <c r="M32" t="n">
-        <v>1145.64979938321</v>
+        <v>1587.770016187982</v>
       </c>
       <c r="N32" t="n">
-        <v>1418.988069067131</v>
+        <v>1861.108285871903</v>
       </c>
       <c r="O32" t="n">
-        <v>1671.692865363657</v>
+        <v>2113.813082168429</v>
       </c>
       <c r="P32" t="n">
-        <v>1873.397657122773</v>
+        <v>2315.517873927546</v>
       </c>
       <c r="Q32" t="n">
-        <v>2320.484142888684</v>
+        <v>2447.479809964825</v>
       </c>
       <c r="R32" t="n">
         <v>2489.65033420716</v>
@@ -6736,16 +6736,16 @@
         <v>2489.65033420716</v>
       </c>
       <c r="V32" t="n">
-        <v>2139.812779543641</v>
+        <v>2489.65033420716</v>
       </c>
       <c r="W32" t="n">
-        <v>1756.052478678809</v>
+        <v>2489.65033420716</v>
       </c>
       <c r="X32" t="n">
-        <v>1355.409080847762</v>
+        <v>2489.65033420716</v>
       </c>
       <c r="Y32" t="n">
-        <v>954.4724077958521</v>
+        <v>2489.65033420716</v>
       </c>
     </row>
     <row r="33">
@@ -6788,19 +6788,19 @@
         <v>650.0249442522929</v>
       </c>
       <c r="M33" t="n">
-        <v>881.884112551362</v>
+        <v>870.5988025290914</v>
       </c>
       <c r="N33" t="n">
-        <v>1498.072570267634</v>
+        <v>1102.846095687355</v>
       </c>
       <c r="O33" t="n">
-        <v>1701.534453260332</v>
+        <v>1306.307978680052</v>
       </c>
       <c r="P33" t="n">
-        <v>1857.000660049904</v>
+        <v>1461.774185469625</v>
       </c>
       <c r="Q33" t="n">
-        <v>1940.708427589411</v>
+        <v>1951.452110012905</v>
       </c>
       <c r="R33" t="n">
         <v>2038.282050091411</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.2739905546009</v>
+        <v>554.4216906841349</v>
       </c>
       <c r="C34" t="n">
-        <v>610.1806181163174</v>
+        <v>445.5494922269087</v>
       </c>
       <c r="D34" t="n">
-        <v>610.1806181163174</v>
+        <v>445.5494922269087</v>
       </c>
       <c r="E34" t="n">
-        <v>610.1806181163174</v>
+        <v>445.5494922269087</v>
       </c>
       <c r="F34" t="n">
         <v>445.5494922269087</v>
@@ -6858,13 +6858,13 @@
         <v>49.7930066841432</v>
       </c>
       <c r="J34" t="n">
-        <v>128.8057277273744</v>
+        <v>128.8057277273742</v>
       </c>
       <c r="K34" t="n">
-        <v>390.0582732114619</v>
+        <v>390.0582732114618</v>
       </c>
       <c r="L34" t="n">
-        <v>786.4949166274605</v>
+        <v>786.4949166274604</v>
       </c>
       <c r="M34" t="n">
         <v>1219.720777048202</v>
@@ -6897,13 +6897,13 @@
         <v>1484.270622320857</v>
       </c>
       <c r="W34" t="n">
-        <v>1207.317559088962</v>
+        <v>1205.200957829731</v>
       </c>
       <c r="X34" t="n">
-        <v>968.9736969486453</v>
+        <v>966.8570956894146</v>
       </c>
       <c r="Y34" t="n">
-        <v>968.9736969486453</v>
+        <v>742.1213970781793</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1218.205874960859</v>
+        <v>1150.501837099415</v>
       </c>
       <c r="C35" t="n">
-        <v>808.081284274129</v>
+        <v>740.3772464126855</v>
       </c>
       <c r="D35" t="n">
-        <v>808.081284274129</v>
+        <v>335.9133165057461</v>
       </c>
       <c r="E35" t="n">
-        <v>393.7410687910257</v>
+        <v>335.9133165057461</v>
       </c>
       <c r="F35" t="n">
-        <v>46.3984144412712</v>
+        <v>335.9133165057461</v>
       </c>
       <c r="G35" t="n">
-        <v>46.3984144412712</v>
+        <v>335.9133165057461</v>
       </c>
       <c r="H35" t="n">
         <v>46.3984144412712</v>
@@ -6946,7 +6946,7 @@
         <v>542.5154146792511</v>
       </c>
       <c r="M35" t="n">
-        <v>1000.194467361077</v>
+        <v>1000.194467361076</v>
       </c>
       <c r="N35" t="n">
         <v>1273.532737044998</v>
@@ -6958,31 +6958,31 @@
         <v>1727.94232510064</v>
       </c>
       <c r="Q35" t="n">
-        <v>1859.90426113792</v>
+        <v>1859.904261137919</v>
       </c>
       <c r="R35" t="n">
-        <v>2029.070452456396</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="S35" t="n">
-        <v>2029.070452456396</v>
+        <v>1941.391628252733</v>
       </c>
       <c r="T35" t="n">
-        <v>2029.070452456396</v>
+        <v>1941.391628252733</v>
       </c>
       <c r="U35" t="n">
-        <v>2029.070452456396</v>
+        <v>1684.498253575553</v>
       </c>
       <c r="V35" t="n">
-        <v>2029.070452456396</v>
+        <v>1684.498253575553</v>
       </c>
       <c r="W35" t="n">
-        <v>2029.070452456396</v>
+        <v>1684.498253575553</v>
       </c>
       <c r="X35" t="n">
-        <v>1628.427054625348</v>
+        <v>1684.498253575553</v>
       </c>
       <c r="Y35" t="n">
-        <v>1628.427054625348</v>
+        <v>1560.723016763905</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>686.7513956548314</v>
       </c>
       <c r="C36" t="n">
-        <v>552.7563244037772</v>
+        <v>552.7563244037771</v>
       </c>
       <c r="D36" t="n">
         <v>435.8591666231696</v>
@@ -7013,40 +7013,40 @@
         <v>40.58140904912791</v>
       </c>
       <c r="I36" t="n">
-        <v>40.58140904912791</v>
+        <v>57.96192752593296</v>
       </c>
       <c r="J36" t="n">
-        <v>336.8904375445927</v>
+        <v>180.5481895940181</v>
       </c>
       <c r="K36" t="n">
-        <v>839.0853745275506</v>
+        <v>302.1721053890271</v>
       </c>
       <c r="L36" t="n">
-        <v>1124.009537674538</v>
+        <v>484.4710986667031</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.583395951337</v>
+        <v>986.6660356496609</v>
       </c>
       <c r="N36" t="n">
-        <v>1576.8306891096</v>
+        <v>1488.860972632619</v>
       </c>
       <c r="O36" t="n">
-        <v>1780.292572102298</v>
+        <v>1692.322855625316</v>
       </c>
       <c r="P36" t="n">
-        <v>1935.75877889187</v>
+        <v>1847.789062414889</v>
       </c>
       <c r="Q36" t="n">
-        <v>2019.466546431377</v>
+        <v>1931.496829954396</v>
       </c>
       <c r="R36" t="n">
-        <v>2029.070452456396</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="S36" t="n">
         <v>1941.841116488826</v>
       </c>
       <c r="T36" t="n">
-        <v>1787.004343426898</v>
+        <v>1787.004343426897</v>
       </c>
       <c r="U36" t="n">
         <v>1589.727065058333</v>
@@ -7055,10 +7055,10 @@
         <v>1376.015538051367</v>
       </c>
       <c r="W36" t="n">
-        <v>1162.782369787696</v>
+        <v>1162.782369787695</v>
       </c>
       <c r="X36" t="n">
-        <v>986.4563879265884</v>
+        <v>986.4563879265879</v>
       </c>
       <c r="Y36" t="n">
         <v>827.0544282904181</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>650.4745903376853</v>
+        <v>416.0516000402791</v>
       </c>
       <c r="C37" t="n">
-        <v>479.3812178994018</v>
+        <v>244.9582276019956</v>
       </c>
       <c r="D37" t="n">
-        <v>319.8865732223118</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="E37" t="n">
-        <v>319.8865732223118</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="F37" t="n">
-        <v>270.0245405348185</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="G37" t="n">
-        <v>270.0245405348185</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="H37" t="n">
         <v>128.7481962766324</v>
@@ -7095,52 +7095,52 @@
         <v>40.58140904912791</v>
       </c>
       <c r="J37" t="n">
-        <v>54.59276646102271</v>
+        <v>119.5941300923591</v>
       </c>
       <c r="K37" t="n">
-        <v>315.8453119451103</v>
+        <v>380.8466755764466</v>
       </c>
       <c r="L37" t="n">
-        <v>398.3028441260858</v>
+        <v>777.2833189924452</v>
       </c>
       <c r="M37" t="n">
-        <v>759.1408952974376</v>
+        <v>1210.509179413187</v>
       </c>
       <c r="N37" t="n">
-        <v>1180.518391743739</v>
+        <v>1621.867111368316</v>
       </c>
       <c r="O37" t="n">
-        <v>1569.889251347305</v>
+        <v>1696.163211553142</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.639785267</v>
+        <v>2012.913745472836</v>
       </c>
       <c r="Q37" t="n">
-        <v>2029.070452456396</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.930325840612</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="S37" t="n">
-        <v>1815.868557377983</v>
+        <v>1859.008683993766</v>
       </c>
       <c r="T37" t="n">
-        <v>1580.323521974407</v>
+        <v>1623.46364859019</v>
       </c>
       <c r="U37" t="n">
-        <v>1580.323521974407</v>
+        <v>1340.716612246353</v>
       </c>
       <c r="V37" t="n">
-        <v>1580.323521974407</v>
+        <v>1066.830867185875</v>
       </c>
       <c r="W37" t="n">
-        <v>1301.253857483282</v>
+        <v>1066.830867185875</v>
       </c>
       <c r="X37" t="n">
-        <v>1062.909995342965</v>
+        <v>828.4870050455588</v>
       </c>
       <c r="Y37" t="n">
-        <v>838.1742967317297</v>
+        <v>603.7513064343235</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1278.532077210315</v>
+        <v>1985.872464628831</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.532077210315</v>
+        <v>1575.747873942101</v>
       </c>
       <c r="D38" t="n">
-        <v>874.0681473033752</v>
+        <v>1171.283944035162</v>
       </c>
       <c r="E38" t="n">
-        <v>874.0681473033752</v>
+        <v>756.9437285520585</v>
       </c>
       <c r="F38" t="n">
-        <v>453.0377352570628</v>
+        <v>335.9133165057461</v>
       </c>
       <c r="G38" t="n">
-        <v>46.39841444127123</v>
+        <v>335.9133165057461</v>
       </c>
       <c r="H38" t="n">
-        <v>46.39841444127123</v>
+        <v>46.3984144412712</v>
       </c>
       <c r="I38" t="n">
         <v>40.58140904912791</v>
       </c>
       <c r="J38" t="n">
-        <v>459.2887282091382</v>
+        <v>332.2930611329966</v>
       </c>
       <c r="K38" t="n">
-        <v>631.4797598189764</v>
+        <v>504.4840927428349</v>
       </c>
       <c r="L38" t="n">
-        <v>860.0431742560033</v>
+        <v>733.047507179862</v>
       </c>
       <c r="M38" t="n">
-        <v>1127.190134437217</v>
+        <v>1000.194467361076</v>
       </c>
       <c r="N38" t="n">
-        <v>1400.528404121139</v>
+        <v>1273.532737044998</v>
       </c>
       <c r="O38" t="n">
-        <v>1653.233200417665</v>
+        <v>1526.237533341524</v>
       </c>
       <c r="P38" t="n">
-        <v>1854.937992176781</v>
+        <v>1727.94232510064</v>
       </c>
       <c r="Q38" t="n">
-        <v>1986.89992821406</v>
+        <v>1859.904261137919</v>
       </c>
       <c r="R38" t="n">
         <v>2029.070452456395</v>
@@ -7204,22 +7204,22 @@
         <v>2029.070452456395</v>
       </c>
       <c r="T38" t="n">
-        <v>2029.070452456395</v>
+        <v>1985.872464628831</v>
       </c>
       <c r="U38" t="n">
-        <v>2029.070452456395</v>
+        <v>1985.872464628831</v>
       </c>
       <c r="V38" t="n">
-        <v>2029.070452456395</v>
+        <v>1985.872464628831</v>
       </c>
       <c r="W38" t="n">
-        <v>2029.070452456395</v>
+        <v>1985.872464628831</v>
       </c>
       <c r="X38" t="n">
-        <v>1628.427054625348</v>
+        <v>1985.872464628831</v>
       </c>
       <c r="Y38" t="n">
-        <v>1628.427054625348</v>
+        <v>1985.872464628831</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>686.7513956548314</v>
       </c>
       <c r="C39" t="n">
-        <v>552.7563244037771</v>
+        <v>552.7563244037772</v>
       </c>
       <c r="D39" t="n">
         <v>435.8591666231696</v>
@@ -7253,28 +7253,28 @@
         <v>40.58140904912791</v>
       </c>
       <c r="J39" t="n">
-        <v>93.22203356995934</v>
+        <v>336.8904375445927</v>
       </c>
       <c r="K39" t="n">
-        <v>214.8459493649683</v>
+        <v>458.5143533396017</v>
       </c>
       <c r="L39" t="n">
-        <v>397.1449426426442</v>
+        <v>640.8133466172776</v>
       </c>
       <c r="M39" t="n">
-        <v>899.339879625602</v>
+        <v>861.387204894076</v>
       </c>
       <c r="N39" t="n">
-        <v>1278.09763511934</v>
+        <v>1093.634498052339</v>
       </c>
       <c r="O39" t="n">
-        <v>1780.292572102298</v>
+        <v>1297.096381045037</v>
       </c>
       <c r="P39" t="n">
-        <v>1935.75877889187</v>
+        <v>1452.562587834609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2019.466546431377</v>
+        <v>1942.24051237789</v>
       </c>
       <c r="R39" t="n">
         <v>2029.070452456395</v>
@@ -7283,7 +7283,7 @@
         <v>1941.841116488826</v>
       </c>
       <c r="T39" t="n">
-        <v>1787.004343426897</v>
+        <v>1787.004343426898</v>
       </c>
       <c r="U39" t="n">
         <v>1589.727065058333</v>
@@ -7295,7 +7295,7 @@
         <v>1162.782369787695</v>
       </c>
       <c r="X39" t="n">
-        <v>986.4563879265879</v>
+        <v>986.456387926588</v>
       </c>
       <c r="Y39" t="n">
         <v>827.0544282904181</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>911.8840178048545</v>
+        <v>658.072834033307</v>
       </c>
       <c r="C40" t="n">
-        <v>740.790645366571</v>
+        <v>658.072834033307</v>
       </c>
       <c r="D40" t="n">
-        <v>740.790645366571</v>
+        <v>498.578189356217</v>
       </c>
       <c r="E40" t="n">
-        <v>579.8798302348905</v>
+        <v>337.6673742245365</v>
       </c>
       <c r="F40" t="n">
-        <v>415.2487043454818</v>
+        <v>270.0245405348185</v>
       </c>
       <c r="G40" t="n">
-        <v>248.9353502884069</v>
+        <v>270.0245405348185</v>
       </c>
       <c r="H40" t="n">
-        <v>107.6590060302207</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="I40" t="n">
         <v>40.58140904912791</v>
       </c>
       <c r="J40" t="n">
-        <v>54.59276646102269</v>
+        <v>119.5941300923591</v>
       </c>
       <c r="K40" t="n">
-        <v>315.8453119451102</v>
+        <v>380.8466755764466</v>
       </c>
       <c r="L40" t="n">
-        <v>657.9493363242814</v>
+        <v>777.2833189924452</v>
       </c>
       <c r="M40" t="n">
-        <v>1091.175196745023</v>
+        <v>1210.509179413187</v>
       </c>
       <c r="N40" t="n">
-        <v>1180.518391743739</v>
+        <v>1631.886675859488</v>
       </c>
       <c r="O40" t="n">
-        <v>1569.889251347305</v>
+        <v>1706.182776044314</v>
       </c>
       <c r="P40" t="n">
         <v>1886.639785266999</v>
@@ -7356,28 +7356,28 @@
         <v>2029.070452456395</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.930325840612</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="S40" t="n">
-        <v>1985.930325840612</v>
+        <v>1859.008683993766</v>
       </c>
       <c r="T40" t="n">
-        <v>1985.930325840612</v>
+        <v>1623.46364859019</v>
       </c>
       <c r="U40" t="n">
-        <v>1703.183289496775</v>
+        <v>1623.46364859019</v>
       </c>
       <c r="V40" t="n">
-        <v>1429.297544436297</v>
+        <v>1349.577903529712</v>
       </c>
       <c r="W40" t="n">
-        <v>1150.227879945171</v>
+        <v>1070.508239038587</v>
       </c>
       <c r="X40" t="n">
-        <v>911.8840178048545</v>
+        <v>1070.508239038587</v>
       </c>
       <c r="Y40" t="n">
-        <v>911.8840178048545</v>
+        <v>845.7725404273514</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>855.0807869893135</v>
+        <v>860.8977923814568</v>
       </c>
       <c r="C41" t="n">
-        <v>855.0807869893135</v>
+        <v>860.8977923814568</v>
       </c>
       <c r="D41" t="n">
-        <v>855.0807869893135</v>
+        <v>860.8977923814568</v>
       </c>
       <c r="E41" t="n">
-        <v>440.7405715062102</v>
+        <v>446.5575768983535</v>
       </c>
       <c r="F41" t="n">
-        <v>440.7405715062102</v>
+        <v>446.5575768983535</v>
       </c>
       <c r="G41" t="n">
-        <v>34.10125069041867</v>
+        <v>39.91825608256198</v>
       </c>
       <c r="H41" t="n">
-        <v>34.10125069041867</v>
+        <v>39.91825608256198</v>
       </c>
       <c r="I41" t="n">
-        <v>34.10125069041867</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="J41" t="n">
-        <v>135.2808102736764</v>
+        <v>135.2808102736765</v>
       </c>
       <c r="K41" t="n">
-        <v>307.4718418835145</v>
+        <v>307.4718418835148</v>
       </c>
       <c r="L41" t="n">
-        <v>536.0352563205415</v>
+        <v>536.0352563205419</v>
       </c>
       <c r="M41" t="n">
-        <v>803.1822165017556</v>
+        <v>803.182216501756</v>
       </c>
       <c r="N41" t="n">
-        <v>1076.520486185677</v>
+        <v>1076.520486185678</v>
       </c>
       <c r="O41" t="n">
-        <v>1329.225282482203</v>
+        <v>1329.225282482204</v>
       </c>
       <c r="P41" t="n">
-        <v>1530.930074241319</v>
+        <v>1530.93007424132</v>
       </c>
       <c r="Q41" t="n">
-        <v>1662.892010278598</v>
+        <v>1662.892010278599</v>
       </c>
       <c r="R41" t="n">
-        <v>1705.062534520933</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S41" t="n">
-        <v>1617.383710317271</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="T41" t="n">
-        <v>1404.321663072129</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="U41" t="n">
-        <v>1404.321663072129</v>
+        <v>1620.956526709466</v>
       </c>
       <c r="V41" t="n">
-        <v>1404.321663072129</v>
+        <v>1271.118972045946</v>
       </c>
       <c r="W41" t="n">
-        <v>1020.561362207298</v>
+        <v>1271.118972045946</v>
       </c>
       <c r="X41" t="n">
-        <v>1020.561362207298</v>
+        <v>1271.118972045946</v>
       </c>
       <c r="Y41" t="n">
-        <v>1020.561362207298</v>
+        <v>1271.118972045946</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>559.7784212884503</v>
+        <v>620.3185943360187</v>
       </c>
       <c r="C42" t="n">
-        <v>425.783350037396</v>
+        <v>486.3235230849644</v>
       </c>
       <c r="D42" t="n">
-        <v>308.8861922567884</v>
+        <v>369.4263653043568</v>
       </c>
       <c r="E42" t="n">
-        <v>308.8861922567884</v>
+        <v>248.9335492966848</v>
       </c>
       <c r="F42" t="n">
-        <v>199.9263124392929</v>
+        <v>139.9736694791894</v>
       </c>
       <c r="G42" t="n">
-        <v>94.05389365052223</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H42" t="n">
-        <v>34.10125069041867</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I42" t="n">
-        <v>34.10125069041867</v>
+        <v>51.48176916722374</v>
       </c>
       <c r="J42" t="n">
-        <v>86.7418752112501</v>
+        <v>347.7907976626885</v>
       </c>
       <c r="K42" t="n">
-        <v>377.9986424451456</v>
+        <v>469.4147134576975</v>
       </c>
       <c r="L42" t="n">
-        <v>800.0016197390767</v>
+        <v>651.7137067353734</v>
       </c>
       <c r="M42" t="n">
-        <v>1020.575478015875</v>
+        <v>872.2875650121719</v>
       </c>
       <c r="N42" t="n">
-        <v>1252.822771174138</v>
+        <v>1104.534858170435</v>
       </c>
       <c r="O42" t="n">
-        <v>1456.284654166836</v>
+        <v>1307.996741163133</v>
       </c>
       <c r="P42" t="n">
-        <v>1611.750860956408</v>
+        <v>1463.462947952705</v>
       </c>
       <c r="Q42" t="n">
-        <v>1695.458628495915</v>
+        <v>1607.488912018935</v>
       </c>
       <c r="R42" t="n">
-        <v>1705.062534520933</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S42" t="n">
-        <v>1705.062534520933</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="T42" t="n">
-        <v>1660.031369060516</v>
+        <v>1550.225761459006</v>
       </c>
       <c r="U42" t="n">
-        <v>1462.754090691952</v>
+        <v>1523.29426373952</v>
       </c>
       <c r="V42" t="n">
-        <v>1249.042563684985</v>
+        <v>1309.582736732554</v>
       </c>
       <c r="W42" t="n">
-        <v>1035.809395421314</v>
+        <v>1096.349568468883</v>
       </c>
       <c r="X42" t="n">
-        <v>859.4834135602069</v>
+        <v>920.0235866077753</v>
       </c>
       <c r="Y42" t="n">
-        <v>700.081453924037</v>
+        <v>760.6216269716053</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>589.0863231971986</v>
+        <v>590.6651257765316</v>
       </c>
       <c r="C43" t="n">
-        <v>589.0863231971986</v>
+        <v>499.5033655151036</v>
       </c>
       <c r="D43" t="n">
-        <v>589.0863231971986</v>
+        <v>340.0087208380136</v>
       </c>
       <c r="E43" t="n">
-        <v>428.175508065518</v>
+        <v>340.0087208380136</v>
       </c>
       <c r="F43" t="n">
-        <v>263.5443821761093</v>
+        <v>175.3775949486048</v>
       </c>
       <c r="G43" t="n">
-        <v>263.5443821761093</v>
+        <v>175.3775949486048</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2680379179231</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I43" t="n">
-        <v>34.10125069041867</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="J43" t="n">
-        <v>48.11260810231345</v>
+        <v>48.11260810231349</v>
       </c>
       <c r="K43" t="n">
-        <v>103.0849600006868</v>
+        <v>309.365153586401</v>
       </c>
       <c r="L43" t="n">
-        <v>499.5216034166854</v>
+        <v>391.8226857673765</v>
       </c>
       <c r="M43" t="n">
-        <v>750.2077367807159</v>
+        <v>813.8256630613078</v>
       </c>
       <c r="N43" t="n">
-        <v>1171.585233227017</v>
+        <v>1235.203159507609</v>
       </c>
       <c r="O43" t="n">
-        <v>1245.881333411843</v>
+        <v>1624.574019111175</v>
       </c>
       <c r="P43" t="n">
-        <v>1562.631867331537</v>
+        <v>1680.427069557752</v>
       </c>
       <c r="Q43" t="n">
-        <v>1705.062534520933</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="R43" t="n">
-        <v>1661.92240790515</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S43" t="n">
-        <v>1491.860639442521</v>
+        <v>1535.000766058306</v>
       </c>
       <c r="T43" t="n">
-        <v>1256.315604038945</v>
+        <v>1299.455730654729</v>
       </c>
       <c r="U43" t="n">
-        <v>973.568567695108</v>
+        <v>1016.708694310892</v>
       </c>
       <c r="V43" t="n">
-        <v>973.568567695108</v>
+        <v>1016.708694310892</v>
       </c>
       <c r="W43" t="n">
-        <v>694.4989032039823</v>
+        <v>1016.708694310892</v>
       </c>
       <c r="X43" t="n">
-        <v>589.0863231971986</v>
+        <v>778.3648321705759</v>
       </c>
       <c r="Y43" t="n">
-        <v>589.0863231971986</v>
+        <v>778.3648321705759</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1054.48410840861</v>
+        <v>444.3821859895015</v>
       </c>
       <c r="C44" t="n">
-        <v>728.0800826618331</v>
+        <v>444.3821859895015</v>
       </c>
       <c r="D44" t="n">
-        <v>323.6161527548936</v>
+        <v>39.91825608256198</v>
       </c>
       <c r="E44" t="n">
-        <v>323.6161527548936</v>
+        <v>39.91825608256198</v>
       </c>
       <c r="F44" t="n">
-        <v>323.6161527548936</v>
+        <v>39.91825608256198</v>
       </c>
       <c r="G44" t="n">
-        <v>323.6161527548936</v>
+        <v>39.91825608256198</v>
       </c>
       <c r="H44" t="n">
-        <v>34.10125069041867</v>
+        <v>39.91825608256198</v>
       </c>
       <c r="I44" t="n">
-        <v>34.10125069041867</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="J44" t="n">
         <v>135.2808102736765</v>
       </c>
       <c r="K44" t="n">
-        <v>307.4718418835147</v>
+        <v>307.4718418835148</v>
       </c>
       <c r="L44" t="n">
-        <v>536.0352563205416</v>
+        <v>536.0352563205419</v>
       </c>
       <c r="M44" t="n">
-        <v>803.1822165017556</v>
+        <v>803.182216501756</v>
       </c>
       <c r="N44" t="n">
-        <v>1076.520486185677</v>
+        <v>1076.520486185678</v>
       </c>
       <c r="O44" t="n">
-        <v>1329.225282482203</v>
+        <v>1329.225282482204</v>
       </c>
       <c r="P44" t="n">
-        <v>1530.930074241319</v>
+        <v>1530.93007424132</v>
       </c>
       <c r="Q44" t="n">
-        <v>1662.892010278598</v>
+        <v>1662.892010278599</v>
       </c>
       <c r="R44" t="n">
-        <v>1705.062534520933</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S44" t="n">
-        <v>1617.383710317271</v>
+        <v>1629.72255773729</v>
       </c>
       <c r="T44" t="n">
-        <v>1404.321663072129</v>
+        <v>1629.72255773729</v>
       </c>
       <c r="U44" t="n">
-        <v>1404.321663072129</v>
+        <v>1629.72255773729</v>
       </c>
       <c r="V44" t="n">
-        <v>1054.48410840861</v>
+        <v>1629.72255773729</v>
       </c>
       <c r="W44" t="n">
-        <v>1054.48410840861</v>
+        <v>1245.962256872459</v>
       </c>
       <c r="X44" t="n">
-        <v>1054.48410840861</v>
+        <v>845.3188590414113</v>
       </c>
       <c r="Y44" t="n">
-        <v>1054.48410840861</v>
+        <v>444.3821859895015</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>571.3113574786269</v>
+        <v>514.446175547248</v>
       </c>
       <c r="C45" t="n">
-        <v>437.3162862275725</v>
+        <v>380.4511042961937</v>
       </c>
       <c r="D45" t="n">
-        <v>320.4191284469649</v>
+        <v>263.5539465155861</v>
       </c>
       <c r="E45" t="n">
-        <v>199.9263124392929</v>
+        <v>143.0611305079141</v>
       </c>
       <c r="F45" t="n">
-        <v>199.9263124392929</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="G45" t="n">
-        <v>94.05389365052223</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H45" t="n">
-        <v>34.10125069041867</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I45" t="n">
-        <v>51.48176916722371</v>
+        <v>51.48176916722374</v>
       </c>
       <c r="J45" t="n">
-        <v>189.5678998881769</v>
+        <v>104.1223936880552</v>
       </c>
       <c r="K45" t="n">
-        <v>311.1918156831859</v>
+        <v>526.1253709819864</v>
       </c>
       <c r="L45" t="n">
-        <v>493.4908089608618</v>
+        <v>708.4243642596623</v>
       </c>
       <c r="M45" t="n">
-        <v>714.0646672376602</v>
+        <v>928.9982225364607</v>
       </c>
       <c r="N45" t="n">
-        <v>946.3119603959235</v>
+        <v>1161.245515694724</v>
       </c>
       <c r="O45" t="n">
-        <v>1368.314937689855</v>
+        <v>1364.707398687422</v>
       </c>
       <c r="P45" t="n">
-        <v>1523.781144479427</v>
+        <v>1611.750860956409</v>
       </c>
       <c r="Q45" t="n">
-        <v>1607.488912018934</v>
+        <v>1695.458628495916</v>
       </c>
       <c r="R45" t="n">
-        <v>1705.062534520933</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S45" t="n">
-        <v>1617.833198553364</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="T45" t="n">
-        <v>1617.833198553364</v>
+        <v>1614.699123319314</v>
       </c>
       <c r="U45" t="n">
-        <v>1420.555920184799</v>
+        <v>1417.421844950749</v>
       </c>
       <c r="V45" t="n">
-        <v>1206.844393177833</v>
+        <v>1203.710317943783</v>
       </c>
       <c r="W45" t="n">
-        <v>993.6112249141617</v>
+        <v>990.4771496801118</v>
       </c>
       <c r="X45" t="n">
-        <v>871.0163497503835</v>
+        <v>814.1511678190046</v>
       </c>
       <c r="Y45" t="n">
-        <v>711.6143901142135</v>
+        <v>654.7492081828346</v>
       </c>
     </row>
     <row r="46">
@@ -7782,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>365.9294271652954</v>
+        <v>122.2680379179232</v>
       </c>
       <c r="C46" t="n">
-        <v>365.9294271652954</v>
+        <v>122.2680379179232</v>
       </c>
       <c r="D46" t="n">
-        <v>365.9294271652954</v>
+        <v>122.2680379179232</v>
       </c>
       <c r="E46" t="n">
-        <v>365.9294271652954</v>
+        <v>122.2680379179232</v>
       </c>
       <c r="F46" t="n">
-        <v>263.5443821761093</v>
+        <v>122.2680379179232</v>
       </c>
       <c r="G46" t="n">
-        <v>263.5443821761093</v>
+        <v>122.2680379179232</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2680379179231</v>
+        <v>122.2680379179232</v>
       </c>
       <c r="I46" t="n">
-        <v>34.10125069041867</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="J46" t="n">
-        <v>48.11260810231345</v>
+        <v>48.11260810231349</v>
       </c>
       <c r="K46" t="n">
-        <v>309.3651535864009</v>
+        <v>103.0849600006869</v>
       </c>
       <c r="L46" t="n">
-        <v>660.2390609343704</v>
+        <v>473.1474266613574</v>
       </c>
       <c r="M46" t="n">
-        <v>1082.242038228301</v>
+        <v>561.4069375678133</v>
       </c>
       <c r="N46" t="n">
-        <v>1171.585233227017</v>
+        <v>982.7844340141148</v>
       </c>
       <c r="O46" t="n">
-        <v>1245.881333411843</v>
+        <v>1372.155293617681</v>
       </c>
       <c r="P46" t="n">
-        <v>1562.631867331537</v>
+        <v>1688.905827537375</v>
       </c>
       <c r="Q46" t="n">
-        <v>1705.062534520933</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="R46" t="n">
-        <v>1705.062534520933</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S46" t="n">
-        <v>1535.000766058305</v>
+        <v>1535.000766058306</v>
       </c>
       <c r="T46" t="n">
         <v>1299.455730654729</v>
@@ -7842,16 +7842,16 @@
         <v>1016.708694310892</v>
       </c>
       <c r="V46" t="n">
-        <v>1016.708694310892</v>
+        <v>742.8229492504145</v>
       </c>
       <c r="W46" t="n">
-        <v>1016.708694310892</v>
+        <v>585.347598669475</v>
       </c>
       <c r="X46" t="n">
-        <v>778.364832170575</v>
+        <v>347.0037365291585</v>
       </c>
       <c r="Y46" t="n">
-        <v>553.6291335593397</v>
+        <v>122.2680379179232</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.209379164537722</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>203.4637565829623</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>210.0077943818273</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>341.7123330852769</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>54.20313861001317</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>337.1146125126012</v>
+        <v>337.1146125126013</v>
       </c>
       <c r="N13" t="n">
-        <v>14.76183062904477</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
-        <v>318.2573327462026</v>
+        <v>218.0349492414697</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>60.92747123911383</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>203.4637565829623</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>103.5934156406291</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>24.82755142614306</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>337.1146125126013</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
-        <v>225.4337037253635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>127.5494547533709</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>320.7351106835879</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>192.4566590915262</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>78.00609500352209</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>54.43045551156268</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
@@ -9336,10 +9336,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>253.4120393757031</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>320.7351106835879</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>192.456659091526</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>384.41517291712</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>235.277496516302</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>349.7914887312577</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>135.2448326629537</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>210.780631128562</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
@@ -9640,7 +9640,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>32.14721581244416</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>32.14721581244429</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,10 +9722,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>438.2721863016124</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>49.80477436228722</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>65.6579430619559</v>
       </c>
       <c r="K25" t="n">
         <v>208.3638319047618</v>
@@ -9877,13 +9877,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>94.01890835324639</v>
+        <v>318.3076259885163</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>352.5671692273314</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>2.209379164537722</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>324.1357959880003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>15.91048738353388</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>346.3133212447985</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>318.3076259885169</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.209379164537722</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>499.5601433548112</v>
+        <v>381.6625819227013</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>145.7882188218684</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>385.1222226396526</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>391.5404477568133</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>318.3076259885164</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>11.39930305279864</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>387.8193581394027</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>192.4566590915267</v>
+        <v>192.4566590915262</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.209379164537722</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>70.65215913864009</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4151729171201</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6617877467798</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>284.4657360668277</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>272.6743877017115</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>275.3318588534302</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>325.2674110670846</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>320.7351106835884</v>
+        <v>192.4566590915262</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.209379164537729</v>
+        <v>2.209379164537722</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>284.4657360668277</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>147.9903659954286</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>301.7505595861216</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>262.2691840385816</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>125.8625846223324</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.209379164537729</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3463145847338</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>242.1252363800557</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>60.9274712391138</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>164.0672954116915</v>
+        <v>337.1146125126013</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>8.564401999619836</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>86.3085921213351</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>303.4131934332548</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>220.7485801022561</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>92.50227826203519</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>271.1276516838323</v>
+        <v>290.5100348279747</v>
       </c>
       <c r="M46" t="n">
-        <v>337.1146125126011</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H11" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.758835338221857</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>210.9314267726901</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>165.4637362056961</v>
       </c>
       <c r="X11" t="n">
-        <v>232.0584179909119</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>42.31538983027833</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23348,10 +23348,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>43.42495371358594</v>
+        <v>104.813694600883</v>
       </c>
       <c r="H12" t="n">
         <v>59.35311653050252</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H13" t="n">
         <v>139.8635808156043</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>42.7087253496258</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9195659803985</v>
+        <v>112.0194316136452</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>82.54819429605101</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,16 +23500,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>209.8987653347108</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>43.64564571842192</v>
       </c>
       <c r="H14" t="n">
         <v>286.6197530438301</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>86.80203596162582</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23579,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>87.194313114069</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.813694600883</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.35311653050252</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>86.35704260789379</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>63.828628241705</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>88.45896995362114</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.28511935522943</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>100.5366911300636</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23743,7 +23743,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>402.5729276076336</v>
@@ -23752,7 +23752,7 @@
         <v>286.6197530438301</v>
       </c>
       <c r="I17" t="n">
-        <v>5.758835338221857</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>194.5278169044436</v>
       </c>
       <c r="Y17" t="n">
-        <v>90.74111744119654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>120.9498633638973</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>42.7087253496258</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T19" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>24.58922860544598</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>11.7407158989152</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5729276076336</v>
+        <v>149.2880625181361</v>
       </c>
       <c r="H20" t="n">
         <v>286.6197530438301</v>
@@ -24025,7 +24025,7 @@
         <v>210.9314267726901</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>139.8635808156043</v>
       </c>
       <c r="I22" t="n">
-        <v>87.28511935522943</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>88.38986200957046</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>58.37103711789774</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>360.3583673878049</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>276.528254895689</v>
       </c>
       <c r="I23" t="n">
-        <v>5.758835338221857</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>86.80203596162582</v>
       </c>
       <c r="T23" t="n">
         <v>210.9314267726901</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>72.63517351399061</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.28511935522943</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>42.7087253496258</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>131.8717713971909</v>
       </c>
       <c r="T25" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>385.6901781401111</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>348.6155548766924</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>86.80203596162582</v>
       </c>
       <c r="T26" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>59.93355635525722</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.6502205165041</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>214.1501469354255</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>86.80203596162582</v>
       </c>
       <c r="T29" t="n">
-        <v>114.3425830630882</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U29" t="n">
         <v>254.324440930408</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>290.6565629793682</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.3611507780025</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>97.14506345822738</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>261.8656161020456</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>324.1797190407613</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>32.45153320776774</v>
       </c>
       <c r="H32" t="n">
         <v>286.6197530438301</v>
       </c>
       <c r="I32" t="n">
-        <v>5.758835338221857</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>254.324440930408</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>61.59896224124672</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>2.095435246638374</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>72.9508801195924</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>402.5729276076336</v>
       </c>
       <c r="H35" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>86.80203596162582</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.9314267726901</v>
       </c>
       <c r="U35" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>274.389821877859</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>42.85176721820945</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>113.6214022698963</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.6502205165041</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>42.7087253496258</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>59.72294022696161</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H38" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>86.80203596162582</v>
       </c>
       <c r="T38" t="n">
-        <v>210.9314267726901</v>
+        <v>168.1654188234016</v>
       </c>
       <c r="U38" t="n">
         <v>254.324440930408</v>
@@ -25456,7 +25456,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>96.01840927769386</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>20.87829834394753</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.7087253496258</v>
       </c>
       <c r="S40" t="n">
-        <v>168.3611507780026</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>242.2931984020399</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25648,7 +25648,7 @@
         <v>286.6197530438301</v>
       </c>
       <c r="I41" t="n">
-        <v>5.758835338221886</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>86.80203596162582</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U41" t="n">
-        <v>254.324440930408</v>
+        <v>171.0594931970539</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.35311653050252</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>86.3570426078938</v>
+        <v>86.35704260789379</v>
       </c>
       <c r="T42" t="n">
-        <v>108.7075515254962</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>168.6423228425879</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>79.13229605508693</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.28511935522943</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.7087253496258</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>131.6019693121976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25867,7 +25867,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>82.8833592905533</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>402.5729276076336</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I44" t="n">
-        <v>5.758835338221886</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>12.215458945818</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U44" t="n">
         <v>254.324440930408</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.813694600883</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.35311653050252</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>86.35704260789379</v>
       </c>
       <c r="T45" t="n">
-        <v>153.288405331309</v>
+        <v>63.828628241705</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>53.19379563035574</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26034,13 +26034,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>61.62362009122047</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>164.6502205165041</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.70872534962582</v>
+        <v>42.7087253496258</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>120.3783707710843</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349124.7942360523</v>
+        <v>349124.7942360524</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>411479.7105455009</v>
+        <v>411479.710545501</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>474376.2774398031</v>
+        <v>474376.277439803</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>474376.2774398029</v>
+        <v>474376.277439803</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>411479.7105455009</v>
+        <v>411479.710545501</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349124.7942360522</v>
+        <v>349124.7942360524</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349124.7942360523</v>
+        <v>349124.7942360524</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>534608.0007494113</v>
       </c>
       <c r="D2" t="n">
-        <v>534608.0007494115</v>
+        <v>534608.0007494113</v>
       </c>
       <c r="E2" t="n">
-        <v>293714.0941913655</v>
+        <v>293714.0941913654</v>
       </c>
       <c r="F2" t="n">
-        <v>293714.0941913656</v>
+        <v>293714.0941913654</v>
       </c>
       <c r="G2" t="n">
         <v>331577.850645975</v>
       </c>
       <c r="H2" t="n">
-        <v>331577.850645975</v>
+        <v>331577.8506459749</v>
       </c>
       <c r="I2" t="n">
+        <v>369770.5134169143</v>
+      </c>
+      <c r="J2" t="n">
         <v>369770.5134169144</v>
       </c>
-      <c r="J2" t="n">
-        <v>369770.5134169145</v>
-      </c>
       <c r="K2" t="n">
-        <v>369770.5134169146</v>
+        <v>369770.5134169144</v>
       </c>
       <c r="L2" t="n">
-        <v>369770.5134169145</v>
+        <v>369770.5134169143</v>
       </c>
       <c r="M2" t="n">
         <v>331577.850645975</v>
       </c>
       <c r="N2" t="n">
-        <v>331577.850645975</v>
+        <v>331577.8506459749</v>
       </c>
       <c r="O2" t="n">
+        <v>293714.0941913655</v>
+      </c>
+      <c r="P2" t="n">
         <v>293714.0941913654</v>
-      </c>
-      <c r="P2" t="n">
-        <v>293714.0941913653</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>540570.8149886985</v>
+        <v>540570.8149886986</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22201.42754683524</v>
+        <v>22201.4275468352</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>355722.5312813406</v>
       </c>
       <c r="E4" t="n">
-        <v>20178.62854791442</v>
+        <v>20178.62854791443</v>
       </c>
       <c r="F4" t="n">
-        <v>20178.62854791441</v>
+        <v>20178.62854791443</v>
       </c>
       <c r="G4" t="n">
         <v>40150.48315507076</v>
@@ -26441,25 +26441,25 @@
         <v>60295.82475200816</v>
       </c>
       <c r="J4" t="n">
+        <v>60295.82475200817</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60295.82475200819</v>
+      </c>
+      <c r="L4" t="n">
         <v>60295.82475200816</v>
       </c>
-      <c r="K4" t="n">
-        <v>60295.82475200816</v>
-      </c>
-      <c r="L4" t="n">
-        <v>60295.82475200818</v>
-      </c>
       <c r="M4" t="n">
-        <v>40150.48315507079</v>
+        <v>40150.48315507076</v>
       </c>
       <c r="N4" t="n">
-        <v>40150.48315507078</v>
+        <v>40150.48315507076</v>
       </c>
       <c r="O4" t="n">
-        <v>20178.62854791441</v>
+        <v>20178.62854791443</v>
       </c>
       <c r="P4" t="n">
-        <v>20178.62854791441</v>
+        <v>20178.62854791443</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>37131.59695614574</v>
+        <v>37131.59695614575</v>
       </c>
       <c r="F5" t="n">
-        <v>37131.59695614574</v>
+        <v>37131.59695614575</v>
       </c>
       <c r="G5" t="n">
         <v>42056.51730876475</v>
@@ -26496,22 +26496,22 @@
         <v>49057.33151137637</v>
       </c>
       <c r="K5" t="n">
-        <v>49057.33151137637</v>
+        <v>49057.33151137638</v>
       </c>
       <c r="L5" t="n">
         <v>49057.33151137637</v>
       </c>
       <c r="M5" t="n">
-        <v>42056.51730876476</v>
+        <v>42056.51730876475</v>
       </c>
       <c r="N5" t="n">
         <v>42056.51730876475</v>
       </c>
       <c r="O5" t="n">
-        <v>37131.59695614573</v>
+        <v>37131.59695614575</v>
       </c>
       <c r="P5" t="n">
-        <v>37131.59695614573</v>
+        <v>37131.59695614575</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145257.8694680709</v>
+        <v>145249.0697824415</v>
       </c>
       <c r="C6" t="n">
-        <v>145257.8694680707</v>
+        <v>145249.0697824413</v>
       </c>
       <c r="D6" t="n">
-        <v>145257.8694680709</v>
+        <v>145249.0697824413</v>
       </c>
       <c r="E6" t="n">
-        <v>-304166.9463013932</v>
+        <v>-304905.7275220471</v>
       </c>
       <c r="F6" t="n">
-        <v>236403.8686873055</v>
+        <v>235665.0874666515</v>
       </c>
       <c r="G6" t="n">
-        <v>227169.4226353043</v>
+        <v>226545.3800705736</v>
       </c>
       <c r="H6" t="n">
-        <v>249370.8501821395</v>
+        <v>248746.8076174087</v>
       </c>
       <c r="I6" t="n">
-        <v>229797.8914697686</v>
+        <v>229289.5842467679</v>
       </c>
       <c r="J6" t="n">
-        <v>260417.35715353</v>
+        <v>259909.0499305293</v>
       </c>
       <c r="K6" t="n">
-        <v>260417.3571535301</v>
+        <v>259909.0499305292</v>
       </c>
       <c r="L6" t="n">
-        <v>260417.3571535299</v>
+        <v>259909.0499305292</v>
       </c>
       <c r="M6" t="n">
-        <v>171838.3364319052</v>
+        <v>171214.2938671744</v>
       </c>
       <c r="N6" t="n">
-        <v>249370.8501821395</v>
+        <v>248746.8076174087</v>
       </c>
       <c r="O6" t="n">
-        <v>236403.8686873053</v>
+        <v>235665.0874666516</v>
       </c>
       <c r="P6" t="n">
-        <v>236403.8686873052</v>
+        <v>235665.0874666515</v>
       </c>
     </row>
   </sheetData>
@@ -26773,13 +26773,13 @@
         <v>514.4333225425479</v>
       </c>
       <c r="N3" t="n">
-        <v>514.4333225425478</v>
+        <v>514.4333225425479</v>
       </c>
       <c r="O3" t="n">
-        <v>514.4333225425478</v>
+        <v>514.4333225425479</v>
       </c>
       <c r="P3" t="n">
-        <v>514.4333225425478</v>
+        <v>514.4333225425479</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.2656336302335</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="F4" t="n">
-        <v>426.2656336302335</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="G4" t="n">
         <v>507.2676131140988</v>
@@ -26816,22 +26816,22 @@
         <v>622.41258355179</v>
       </c>
       <c r="K4" t="n">
-        <v>622.41258355179</v>
+        <v>622.4125835517901</v>
       </c>
       <c r="L4" t="n">
         <v>622.41258355179</v>
       </c>
       <c r="M4" t="n">
-        <v>507.2676131140989</v>
+        <v>507.2676131140988</v>
       </c>
       <c r="N4" t="n">
         <v>507.2676131140988</v>
       </c>
       <c r="O4" t="n">
-        <v>426.2656336302334</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="P4" t="n">
-        <v>426.2656336302334</v>
+        <v>426.2656336302336</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.2656336302335</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>81.00197948386534</v>
+        <v>81.00197948386523</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>426.2656336302335</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>81.00197948386534</v>
+        <v>81.00197948386523</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -33888,31 +33888,31 @@
         <v>2.068073658462502</v>
       </c>
       <c r="H38" t="n">
-        <v>21.1796593547291</v>
+        <v>21.17965935472911</v>
       </c>
       <c r="I38" t="n">
-        <v>79.72940971787568</v>
+        <v>79.72940971787571</v>
       </c>
       <c r="J38" t="n">
-        <v>175.5251666699319</v>
+        <v>175.525166669932</v>
       </c>
       <c r="K38" t="n">
-        <v>263.0667246326497</v>
+        <v>263.0667246326498</v>
       </c>
       <c r="L38" t="n">
         <v>326.3575338578216</v>
       </c>
       <c r="M38" t="n">
-        <v>363.1356387815041</v>
+        <v>363.1356387815042</v>
       </c>
       <c r="N38" t="n">
-        <v>369.0115530636107</v>
+        <v>369.0115530636108</v>
       </c>
       <c r="O38" t="n">
-        <v>348.4471456222741</v>
+        <v>348.4471456222743</v>
       </c>
       <c r="P38" t="n">
-        <v>297.3915771789811</v>
+        <v>297.3915771789812</v>
       </c>
       <c r="Q38" t="n">
         <v>223.3286892852927</v>
@@ -33924,10 +33924,10 @@
         <v>47.12622849221432</v>
       </c>
       <c r="T38" t="n">
-        <v>9.052992439919608</v>
+        <v>9.05299243991961</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1654458926770001</v>
+        <v>0.1654458926770002</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>10.68662430413859</v>
       </c>
       <c r="I39" t="n">
-        <v>38.09718473546227</v>
+        <v>38.09718473546228</v>
       </c>
       <c r="J39" t="n">
         <v>104.5415868008399</v>
@@ -33982,13 +33982,13 @@
         <v>240.2549210610267</v>
       </c>
       <c r="M39" t="n">
-        <v>280.3661607856885</v>
+        <v>280.3661607856886</v>
       </c>
       <c r="N39" t="n">
-        <v>287.7866188061372</v>
+        <v>287.7866188061373</v>
       </c>
       <c r="O39" t="n">
-        <v>263.2685325279772</v>
+        <v>263.2685325279773</v>
       </c>
       <c r="P39" t="n">
         <v>211.2962075175231</v>
@@ -33997,16 +33997,16 @@
         <v>141.2459190497954</v>
       </c>
       <c r="R39" t="n">
-        <v>68.7011142821916</v>
+        <v>68.70111428219161</v>
       </c>
       <c r="S39" t="n">
         <v>20.55306717894046</v>
       </c>
       <c r="T39" t="n">
-        <v>4.460039843552842</v>
+        <v>4.460039843552843</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07279716828432282</v>
+        <v>0.07279716828432285</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.927666647207873</v>
+        <v>0.9276666472078732</v>
       </c>
       <c r="H40" t="n">
-        <v>8.24779982699364</v>
+        <v>8.247799826993642</v>
       </c>
       <c r="I40" t="n">
-        <v>27.89746608148768</v>
+        <v>27.89746608148769</v>
       </c>
       <c r="J40" t="n">
-        <v>65.58603195759662</v>
+        <v>65.58603195759663</v>
       </c>
       <c r="K40" t="n">
-        <v>107.7779977392419</v>
+        <v>107.777997739242</v>
       </c>
       <c r="L40" t="n">
         <v>137.9187304403414</v>
@@ -34073,19 +34073,19 @@
         <v>112.197064313214</v>
       </c>
       <c r="Q40" t="n">
-        <v>77.67943170392471</v>
+        <v>77.67943170392473</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71126579172853</v>
+        <v>41.71126579172854</v>
       </c>
       <c r="S40" t="n">
         <v>16.16669966088629</v>
       </c>
       <c r="T40" t="n">
-        <v>3.963666583524547</v>
+        <v>3.963666583524548</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05059999893861131</v>
+        <v>0.05059999893861132</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,31 +34125,31 @@
         <v>2.068073658462502</v>
       </c>
       <c r="H41" t="n">
-        <v>21.1796593547291</v>
+        <v>21.17965935472911</v>
       </c>
       <c r="I41" t="n">
-        <v>79.72940971787568</v>
+        <v>79.72940971787571</v>
       </c>
       <c r="J41" t="n">
-        <v>175.5251666699319</v>
+        <v>175.525166669932</v>
       </c>
       <c r="K41" t="n">
-        <v>263.0667246326497</v>
+        <v>263.0667246326498</v>
       </c>
       <c r="L41" t="n">
         <v>326.3575338578216</v>
       </c>
       <c r="M41" t="n">
-        <v>363.1356387815041</v>
+        <v>363.1356387815042</v>
       </c>
       <c r="N41" t="n">
-        <v>369.0115530636107</v>
+        <v>369.0115530636108</v>
       </c>
       <c r="O41" t="n">
-        <v>348.4471456222741</v>
+        <v>348.4471456222743</v>
       </c>
       <c r="P41" t="n">
-        <v>297.3915771789811</v>
+        <v>297.3915771789812</v>
       </c>
       <c r="Q41" t="n">
         <v>223.3286892852927</v>
@@ -34161,10 +34161,10 @@
         <v>47.12622849221432</v>
       </c>
       <c r="T41" t="n">
-        <v>9.052992439919608</v>
+        <v>9.05299243991961</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1654458926770001</v>
+        <v>0.1654458926770002</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>10.68662430413859</v>
       </c>
       <c r="I42" t="n">
-        <v>38.09718473546227</v>
+        <v>38.09718473546228</v>
       </c>
       <c r="J42" t="n">
         <v>104.5415868008399</v>
@@ -34219,13 +34219,13 @@
         <v>240.2549210610267</v>
       </c>
       <c r="M42" t="n">
-        <v>280.3661607856885</v>
+        <v>280.3661607856886</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7866188061372</v>
+        <v>287.7866188061373</v>
       </c>
       <c r="O42" t="n">
-        <v>263.2685325279772</v>
+        <v>263.2685325279773</v>
       </c>
       <c r="P42" t="n">
         <v>211.2962075175231</v>
@@ -34234,16 +34234,16 @@
         <v>141.2459190497954</v>
       </c>
       <c r="R42" t="n">
-        <v>68.7011142821916</v>
+        <v>68.70111428219161</v>
       </c>
       <c r="S42" t="n">
         <v>20.55306717894046</v>
       </c>
       <c r="T42" t="n">
-        <v>4.460039843552842</v>
+        <v>4.460039843552843</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07279716828432282</v>
+        <v>0.07279716828432285</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.927666647207873</v>
+        <v>0.9276666472078732</v>
       </c>
       <c r="H43" t="n">
-        <v>8.24779982699364</v>
+        <v>8.247799826993642</v>
       </c>
       <c r="I43" t="n">
-        <v>27.89746608148768</v>
+        <v>27.89746608148769</v>
       </c>
       <c r="J43" t="n">
-        <v>65.58603195759662</v>
+        <v>65.58603195759663</v>
       </c>
       <c r="K43" t="n">
-        <v>107.7779977392419</v>
+        <v>107.777997739242</v>
       </c>
       <c r="L43" t="n">
         <v>137.9187304403414</v>
@@ -34310,19 +34310,19 @@
         <v>112.197064313214</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.67943170392471</v>
+        <v>77.67943170392473</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71126579172853</v>
+        <v>41.71126579172854</v>
       </c>
       <c r="S43" t="n">
         <v>16.16669966088629</v>
       </c>
       <c r="T43" t="n">
-        <v>3.963666583524547</v>
+        <v>3.963666583524548</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05059999893861131</v>
+        <v>0.05059999893861132</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,31 +34362,31 @@
         <v>2.068073658462502</v>
       </c>
       <c r="H44" t="n">
-        <v>21.1796593547291</v>
+        <v>21.17965935472911</v>
       </c>
       <c r="I44" t="n">
-        <v>79.72940971787568</v>
+        <v>79.72940971787571</v>
       </c>
       <c r="J44" t="n">
-        <v>175.5251666699319</v>
+        <v>175.525166669932</v>
       </c>
       <c r="K44" t="n">
-        <v>263.0667246326497</v>
+        <v>263.0667246326498</v>
       </c>
       <c r="L44" t="n">
         <v>326.3575338578216</v>
       </c>
       <c r="M44" t="n">
-        <v>363.1356387815041</v>
+        <v>363.1356387815042</v>
       </c>
       <c r="N44" t="n">
-        <v>369.0115530636107</v>
+        <v>369.0115530636108</v>
       </c>
       <c r="O44" t="n">
-        <v>348.4471456222741</v>
+        <v>348.4471456222743</v>
       </c>
       <c r="P44" t="n">
-        <v>297.3915771789811</v>
+        <v>297.3915771789812</v>
       </c>
       <c r="Q44" t="n">
         <v>223.3286892852927</v>
@@ -34398,10 +34398,10 @@
         <v>47.12622849221432</v>
       </c>
       <c r="T44" t="n">
-        <v>9.052992439919608</v>
+        <v>9.05299243991961</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1654458926770001</v>
+        <v>0.1654458926770002</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>10.68662430413859</v>
       </c>
       <c r="I45" t="n">
-        <v>38.09718473546227</v>
+        <v>38.09718473546228</v>
       </c>
       <c r="J45" t="n">
         <v>104.5415868008399</v>
@@ -34456,13 +34456,13 @@
         <v>240.2549210610267</v>
       </c>
       <c r="M45" t="n">
-        <v>280.3661607856885</v>
+        <v>280.3661607856886</v>
       </c>
       <c r="N45" t="n">
-        <v>287.7866188061372</v>
+        <v>287.7866188061373</v>
       </c>
       <c r="O45" t="n">
-        <v>263.2685325279772</v>
+        <v>263.2685325279773</v>
       </c>
       <c r="P45" t="n">
         <v>211.2962075175231</v>
@@ -34471,16 +34471,16 @@
         <v>141.2459190497954</v>
       </c>
       <c r="R45" t="n">
-        <v>68.7011142821916</v>
+        <v>68.70111428219161</v>
       </c>
       <c r="S45" t="n">
         <v>20.55306717894046</v>
       </c>
       <c r="T45" t="n">
-        <v>4.460039843552842</v>
+        <v>4.460039843552843</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07279716828432282</v>
+        <v>0.07279716828432285</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.927666647207873</v>
+        <v>0.9276666472078732</v>
       </c>
       <c r="H46" t="n">
-        <v>8.24779982699364</v>
+        <v>8.247799826993642</v>
       </c>
       <c r="I46" t="n">
-        <v>27.89746608148768</v>
+        <v>27.89746608148769</v>
       </c>
       <c r="J46" t="n">
-        <v>65.58603195759662</v>
+        <v>65.58603195759663</v>
       </c>
       <c r="K46" t="n">
-        <v>107.7779977392419</v>
+        <v>107.777997739242</v>
       </c>
       <c r="L46" t="n">
         <v>137.9187304403414</v>
@@ -34547,19 +34547,19 @@
         <v>112.197064313214</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.67943170392471</v>
+        <v>77.67943170392473</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71126579172853</v>
+        <v>41.71126579172854</v>
       </c>
       <c r="S46" t="n">
         <v>16.16669966088629</v>
       </c>
       <c r="T46" t="n">
-        <v>3.963666583524547</v>
+        <v>3.963666583524548</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05059999893861131</v>
+        <v>0.05059999893861132</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>17.55607926950005</v>
       </c>
       <c r="J12" t="n">
         <v>53.17234800083985</v>
@@ -35497,22 +35497,22 @@
         <v>184.1403972501777</v>
       </c>
       <c r="M12" t="n">
-        <v>426.2656336302335</v>
+        <v>222.8018770472711</v>
       </c>
       <c r="N12" t="n">
         <v>234.5932254123873</v>
       </c>
       <c r="O12" t="n">
-        <v>415.5248479098046</v>
+        <v>205.5170535279773</v>
       </c>
       <c r="P12" t="n">
         <v>157.0365725147194</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.5533005449567</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="R12" t="n">
-        <v>9.700915176786204</v>
+        <v>63.90405378679937</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.81082933659715</v>
+        <v>14.15288627464121</v>
       </c>
       <c r="K13" t="n">
-        <v>263.8914600849369</v>
+        <v>55.52762818017514</v>
       </c>
       <c r="L13" t="n">
-        <v>83.29043654643993</v>
+        <v>400.4410539555541</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2656336302335</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="N13" t="n">
-        <v>105.0074821428993</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O13" t="n">
-        <v>393.3038985894609</v>
+        <v>293.0815150847281</v>
       </c>
       <c r="P13" t="n">
-        <v>319.9500342623174</v>
+        <v>56.41722267330922</v>
       </c>
       <c r="Q13" t="n">
         <v>16.31990604399917</v>
@@ -35649,7 +35649,7 @@
         <v>102.201575336624</v>
       </c>
       <c r="K14" t="n">
-        <v>173.9303349594327</v>
+        <v>173.9303349594326</v>
       </c>
       <c r="L14" t="n">
         <v>230.8721357949768</v>
@@ -35670,7 +35670,7 @@
         <v>133.2948848861407</v>
       </c>
       <c r="R14" t="n">
-        <v>42.59648913367177</v>
+        <v>42.59648913367215</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>17.55607926950005</v>
       </c>
       <c r="J15" t="n">
-        <v>53.17234800083985</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K15" t="n">
-        <v>122.8524401969788</v>
+        <v>183.7799114360926</v>
       </c>
       <c r="L15" t="n">
         <v>184.1403972501777</v>
       </c>
       <c r="M15" t="n">
-        <v>426.2656336302335</v>
+        <v>222.8018770472711</v>
       </c>
       <c r="N15" t="n">
         <v>234.5932254123873</v>
       </c>
       <c r="O15" t="n">
-        <v>309.1104691686064</v>
+        <v>205.5170535279773</v>
       </c>
       <c r="P15" t="n">
         <v>157.0365725147194</v>
@@ -35807,22 +35807,22 @@
         <v>79.81082933659715</v>
       </c>
       <c r="K16" t="n">
-        <v>263.8914600849369</v>
+        <v>80.3551796063182</v>
       </c>
       <c r="L16" t="n">
         <v>400.4410539555541</v>
       </c>
       <c r="M16" t="n">
-        <v>89.15102111763227</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="N16" t="n">
-        <v>90.24565151385455</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O16" t="n">
-        <v>300.4802695686218</v>
+        <v>75.04656584325838</v>
       </c>
       <c r="P16" t="n">
-        <v>319.9500342623174</v>
+        <v>56.41722267330922</v>
       </c>
       <c r="Q16" t="n">
         <v>143.86936079737</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>102.201575336624</v>
+        <v>422.9366860202119</v>
       </c>
       <c r="K17" t="n">
         <v>173.9303349594326</v>
@@ -35895,7 +35895,7 @@
         <v>269.8454143244587</v>
       </c>
       <c r="N17" t="n">
-        <v>468.5559213985177</v>
+        <v>276.0992623069915</v>
       </c>
       <c r="O17" t="n">
         <v>255.2573699964911</v>
@@ -35907,7 +35907,7 @@
         <v>133.2948848861407</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8749407257335</v>
+        <v>42.59648913367177</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>299.3020489853179</v>
       </c>
       <c r="K18" t="n">
-        <v>200.8585352005009</v>
+        <v>122.8524401969788</v>
       </c>
       <c r="L18" t="n">
         <v>184.1403972501777</v>
@@ -35986,7 +35986,7 @@
         <v>494.6241662053342</v>
       </c>
       <c r="R18" t="n">
-        <v>9.700915176786204</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>14.15288627464121</v>
+        <v>79.81082933659715</v>
       </c>
       <c r="K19" t="n">
         <v>263.8914600849369</v>
       </c>
       <c r="L19" t="n">
-        <v>137.7208920580026</v>
+        <v>400.4410539555541</v>
       </c>
       <c r="M19" t="n">
         <v>437.6018792128701</v>
@@ -36056,10 +36056,10 @@
         <v>425.633834794244</v>
       </c>
       <c r="O19" t="n">
-        <v>393.3038985894609</v>
+        <v>75.04656584325838</v>
       </c>
       <c r="P19" t="n">
-        <v>319.9500342623174</v>
+        <v>309.8292620490124</v>
       </c>
       <c r="Q19" t="n">
         <v>16.31990604399917</v>
@@ -36123,7 +36123,7 @@
         <v>102.201575336624</v>
       </c>
       <c r="K20" t="n">
-        <v>173.9303349594326</v>
+        <v>494.6654456430206</v>
       </c>
       <c r="L20" t="n">
         <v>230.8721357949768</v>
@@ -36135,7 +36135,7 @@
         <v>276.0992623069915</v>
       </c>
       <c r="O20" t="n">
-        <v>447.7140290880172</v>
+        <v>255.2573699964911</v>
       </c>
       <c r="P20" t="n">
         <v>203.742213898097</v>
@@ -36144,7 +36144,7 @@
         <v>133.2948848861407</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8749407257335</v>
+        <v>42.59648913367177</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>53.17234800083985</v>
       </c>
       <c r="K21" t="n">
-        <v>122.8524401969788</v>
+        <v>507.2676131140988</v>
       </c>
       <c r="L21" t="n">
         <v>184.1403972501777</v>
@@ -36211,19 +36211,19 @@
         <v>222.8018770472711</v>
       </c>
       <c r="N21" t="n">
-        <v>469.8707219286892</v>
+        <v>234.5932254123873</v>
       </c>
       <c r="O21" t="n">
         <v>205.5170535279773</v>
       </c>
       <c r="P21" t="n">
-        <v>157.0365725147194</v>
+        <v>506.828061245977</v>
       </c>
       <c r="Q21" t="n">
-        <v>494.6241662053342</v>
+        <v>84.5533005449567</v>
       </c>
       <c r="R21" t="n">
-        <v>98.55921464848444</v>
+        <v>9.700915176786204</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.15288627464121</v>
+        <v>79.81082933659715</v>
       </c>
       <c r="K22" t="n">
-        <v>55.52762818017514</v>
+        <v>263.8914600849369</v>
       </c>
       <c r="L22" t="n">
-        <v>218.5352692093936</v>
+        <v>400.4410539555541</v>
       </c>
       <c r="M22" t="n">
-        <v>437.6018792128701</v>
+        <v>89.15102111763227</v>
       </c>
       <c r="N22" t="n">
         <v>425.633834794244</v>
       </c>
       <c r="O22" t="n">
-        <v>393.3038985894609</v>
+        <v>285.8271969718204</v>
       </c>
       <c r="P22" t="n">
         <v>319.9500342623174</v>
@@ -36360,7 +36360,7 @@
         <v>432.2781681525121</v>
       </c>
       <c r="K23" t="n">
-        <v>206.0775507718768</v>
+        <v>173.9303349594326</v>
       </c>
       <c r="L23" t="n">
         <v>230.8721357949768</v>
@@ -36381,7 +36381,7 @@
         <v>547.7337466542746</v>
       </c>
       <c r="R23" t="n">
-        <v>42.59648913367177</v>
+        <v>74.74370494611605</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>122.8524401969788</v>
       </c>
       <c r="L24" t="n">
-        <v>622.41258355179</v>
+        <v>184.1403972501777</v>
       </c>
       <c r="M24" t="n">
-        <v>272.6066514095584</v>
+        <v>222.8018770472711</v>
       </c>
       <c r="N24" t="n">
         <v>234.5932254123873</v>
@@ -36457,10 +36457,10 @@
         <v>157.0365725147194</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.5533005449567</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R24" t="n">
-        <v>9.700915176786204</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.81082933659715</v>
+        <v>79.81082933659712</v>
       </c>
       <c r="K25" t="n">
         <v>263.8914600849369</v>
@@ -36597,13 +36597,13 @@
         <v>432.2781681525121</v>
       </c>
       <c r="K26" t="n">
-        <v>267.949243312679</v>
+        <v>492.2379609479489</v>
       </c>
       <c r="L26" t="n">
         <v>230.8721357949768</v>
       </c>
       <c r="M26" t="n">
-        <v>622.41258355179</v>
+        <v>269.8454143244587</v>
       </c>
       <c r="N26" t="n">
         <v>276.0992623069915</v>
@@ -36618,7 +36618,7 @@
         <v>133.2948848861407</v>
       </c>
       <c r="R26" t="n">
-        <v>42.59648913367177</v>
+        <v>170.8749407257335</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>53.17234800083985</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K27" t="n">
         <v>122.8524401969788</v>
@@ -36688,7 +36688,7 @@
         <v>234.5932254123873</v>
       </c>
       <c r="O27" t="n">
-        <v>529.6528495159776</v>
+        <v>205.5170535279773</v>
       </c>
       <c r="P27" t="n">
         <v>157.0365725147194</v>
@@ -36697,7 +36697,7 @@
         <v>494.6241662053342</v>
       </c>
       <c r="R27" t="n">
-        <v>9.700915176786204</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>437.6018792128701</v>
       </c>
       <c r="N28" t="n">
-        <v>425.6338347942439</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O28" t="n">
         <v>393.3038985894609</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>102.201575336624</v>
+        <v>432.2781681525121</v>
       </c>
       <c r="K29" t="n">
-        <v>189.8408223429665</v>
+        <v>173.9303349594326</v>
       </c>
       <c r="L29" t="n">
         <v>230.8721357949768</v>
@@ -36843,7 +36843,7 @@
         <v>269.8454143244587</v>
       </c>
       <c r="N29" t="n">
-        <v>622.41258355179</v>
+        <v>276.0992623069915</v>
       </c>
       <c r="O29" t="n">
         <v>255.2573699964911</v>
@@ -36852,10 +36852,10 @@
         <v>203.742213898097</v>
       </c>
       <c r="Q29" t="n">
-        <v>547.7337466542746</v>
+        <v>451.6025108746576</v>
       </c>
       <c r="R29" t="n">
-        <v>42.59648913367177</v>
+        <v>170.8749407257335</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>17.55607926950005</v>
       </c>
       <c r="J30" t="n">
-        <v>53.17234800083985</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K30" t="n">
-        <v>622.41258355179</v>
+        <v>504.5150221196801</v>
       </c>
       <c r="L30" t="n">
         <v>184.1403972501777</v>
@@ -36928,7 +36928,7 @@
         <v>205.5170535279773</v>
       </c>
       <c r="P30" t="n">
-        <v>302.8247913365878</v>
+        <v>157.0365725147194</v>
       </c>
       <c r="Q30" t="n">
         <v>84.5533005449567</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>432.2781681525121</v>
+        <v>102.201575336624</v>
       </c>
       <c r="K32" t="n">
-        <v>173.9303349594326</v>
+        <v>559.0525575990853</v>
       </c>
       <c r="L32" t="n">
-        <v>230.8721357949768</v>
+        <v>622.41258355179</v>
       </c>
       <c r="M32" t="n">
         <v>269.8454143244587</v>
@@ -37089,10 +37089,10 @@
         <v>203.742213898097</v>
       </c>
       <c r="Q32" t="n">
-        <v>451.6025108746571</v>
+        <v>133.2948848861407</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8749407257335</v>
+        <v>42.59648913367177</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>184.1403972501777</v>
       </c>
       <c r="M33" t="n">
-        <v>234.2011801000698</v>
+        <v>222.8018770472711</v>
       </c>
       <c r="N33" t="n">
-        <v>622.41258355179</v>
+        <v>234.5932254123873</v>
       </c>
       <c r="O33" t="n">
         <v>205.5170535279773</v>
@@ -37168,10 +37168,10 @@
         <v>157.0365725147194</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.5533005449567</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R33" t="n">
-        <v>98.55921464848444</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>230.8721357949768</v>
       </c>
       <c r="M35" t="n">
-        <v>462.3020734159854</v>
+        <v>462.3020734159849</v>
       </c>
       <c r="N35" t="n">
         <v>276.0992623069915</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>17.55607926950005</v>
       </c>
       <c r="J36" t="n">
-        <v>299.3020489853179</v>
+        <v>123.8245071394799</v>
       </c>
       <c r="K36" t="n">
-        <v>507.2676131140989</v>
+        <v>122.8524401969788</v>
       </c>
       <c r="L36" t="n">
-        <v>287.8021849969575</v>
+        <v>184.1403972501777</v>
       </c>
       <c r="M36" t="n">
-        <v>222.8018770472711</v>
+        <v>507.2676131140988</v>
       </c>
       <c r="N36" t="n">
-        <v>234.5932254123873</v>
+        <v>507.2676131140988</v>
       </c>
       <c r="O36" t="n">
         <v>205.5170535279773</v>
@@ -37408,7 +37408,7 @@
         <v>84.5533005449567</v>
       </c>
       <c r="R36" t="n">
-        <v>9.700915176786204</v>
+        <v>98.55921464848444</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.15288627464121</v>
+        <v>79.81082933659715</v>
       </c>
       <c r="K37" t="n">
         <v>263.8914600849369</v>
       </c>
       <c r="L37" t="n">
-        <v>83.29043654643993</v>
+        <v>400.4410539555541</v>
       </c>
       <c r="M37" t="n">
-        <v>364.4828799710625</v>
+        <v>437.6018792128701</v>
       </c>
       <c r="N37" t="n">
-        <v>425.633834794244</v>
+        <v>415.5130625809392</v>
       </c>
       <c r="O37" t="n">
-        <v>393.3038985894609</v>
+        <v>75.04656584325838</v>
       </c>
       <c r="P37" t="n">
         <v>319.9500342623174</v>
       </c>
       <c r="Q37" t="n">
-        <v>143.86936079737</v>
+        <v>16.31990604399917</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>422.9366860202124</v>
+        <v>294.6582344281503</v>
       </c>
       <c r="K38" t="n">
         <v>173.9303349594326</v>
@@ -37554,19 +37554,19 @@
         <v>269.8454143244587</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0992623069914</v>
+        <v>276.0992623069915</v>
       </c>
       <c r="O38" t="n">
-        <v>255.257369996491</v>
+        <v>255.2573699964911</v>
       </c>
       <c r="P38" t="n">
-        <v>203.7422138980969</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.2948848861406</v>
+        <v>133.2948848861407</v>
       </c>
       <c r="R38" t="n">
-        <v>42.59648913367174</v>
+        <v>170.8749407257335</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>53.17234800083984</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K39" t="n">
         <v>122.8524401969788</v>
@@ -37630,22 +37630,22 @@
         <v>184.1403972501777</v>
       </c>
       <c r="M39" t="n">
-        <v>507.2676131140988</v>
+        <v>222.8018770472711</v>
       </c>
       <c r="N39" t="n">
-        <v>382.5835914078158</v>
+        <v>234.5932254123873</v>
       </c>
       <c r="O39" t="n">
-        <v>507.2676131140988</v>
+        <v>205.5170535279773</v>
       </c>
       <c r="P39" t="n">
         <v>157.0365725147194</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.55330054495667</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R39" t="n">
-        <v>9.700915176786189</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.1528862746412</v>
+        <v>79.81082933659715</v>
       </c>
       <c r="K40" t="n">
         <v>263.8914600849369</v>
       </c>
       <c r="L40" t="n">
-        <v>345.5596205850214</v>
+        <v>400.4410539555541</v>
       </c>
       <c r="M40" t="n">
         <v>437.6018792128701</v>
       </c>
       <c r="N40" t="n">
-        <v>90.24565151385453</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O40" t="n">
-        <v>393.3038985894609</v>
+        <v>75.04656584325838</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9500342623174</v>
+        <v>182.2798072956416</v>
       </c>
       <c r="Q40" t="n">
         <v>143.86936079737</v>
@@ -37782,7 +37782,7 @@
         <v>102.201575336624</v>
       </c>
       <c r="K41" t="n">
-        <v>173.9303349594324</v>
+        <v>173.9303349594326</v>
       </c>
       <c r="L41" t="n">
         <v>230.8721357949768</v>
@@ -37791,19 +37791,19 @@
         <v>269.8454143244587</v>
       </c>
       <c r="N41" t="n">
-        <v>276.0992623069914</v>
+        <v>276.0992623069915</v>
       </c>
       <c r="O41" t="n">
-        <v>255.257369996491</v>
+        <v>255.2573699964911</v>
       </c>
       <c r="P41" t="n">
-        <v>203.7422138980969</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.2948848861406</v>
+        <v>133.2948848861407</v>
       </c>
       <c r="R41" t="n">
-        <v>42.59648913367174</v>
+        <v>42.59648913367215</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>17.55607926950005</v>
       </c>
       <c r="J42" t="n">
-        <v>53.17234800083984</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K42" t="n">
-        <v>294.1987547817126</v>
+        <v>122.8524401969788</v>
       </c>
       <c r="L42" t="n">
-        <v>426.2656336302334</v>
+        <v>184.1403972501777</v>
       </c>
       <c r="M42" t="n">
         <v>222.8018770472711</v>
       </c>
       <c r="N42" t="n">
-        <v>234.5932254123872</v>
+        <v>234.5932254123873</v>
       </c>
       <c r="O42" t="n">
         <v>205.5170535279773</v>
@@ -37879,10 +37879,10 @@
         <v>157.0365725147194</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.55330054495667</v>
+        <v>145.4807717840705</v>
       </c>
       <c r="R42" t="n">
-        <v>9.700915176786189</v>
+        <v>98.55921464848444</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.1528862746412</v>
+        <v>14.15288627464121</v>
       </c>
       <c r="K43" t="n">
-        <v>55.52762818017511</v>
+        <v>263.8914600849369</v>
       </c>
       <c r="L43" t="n">
-        <v>400.4410539555541</v>
+        <v>83.29043654643993</v>
       </c>
       <c r="M43" t="n">
-        <v>253.2183165293237</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="N43" t="n">
         <v>425.633834794244</v>
       </c>
       <c r="O43" t="n">
-        <v>75.04656584325835</v>
+        <v>393.3038985894609</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9500342623174</v>
+        <v>56.41722267330922</v>
       </c>
       <c r="Q43" t="n">
-        <v>143.86936079737</v>
+        <v>24.884308043619</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,19 +38028,19 @@
         <v>269.8454143244587</v>
       </c>
       <c r="N44" t="n">
-        <v>276.0992623069914</v>
+        <v>276.0992623069915</v>
       </c>
       <c r="O44" t="n">
-        <v>255.257369996491</v>
+        <v>255.2573699964911</v>
       </c>
       <c r="P44" t="n">
-        <v>203.7422138980969</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.2948848861406</v>
+        <v>133.2948848861407</v>
       </c>
       <c r="R44" t="n">
-        <v>42.59648913367174</v>
+        <v>42.59648913367215</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>17.55607926950005</v>
       </c>
       <c r="J45" t="n">
-        <v>139.4809401221749</v>
+        <v>53.17234800083985</v>
       </c>
       <c r="K45" t="n">
-        <v>122.8524401969788</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="L45" t="n">
         <v>184.1403972501777</v>
@@ -38107,19 +38107,19 @@
         <v>222.8018770472711</v>
       </c>
       <c r="N45" t="n">
-        <v>234.5932254123872</v>
+        <v>234.5932254123873</v>
       </c>
       <c r="O45" t="n">
-        <v>426.2656336302334</v>
+        <v>205.5170535279773</v>
       </c>
       <c r="P45" t="n">
-        <v>157.0365725147194</v>
+        <v>249.5388507767546</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.55330054495667</v>
+        <v>84.5533005449567</v>
       </c>
       <c r="R45" t="n">
-        <v>98.55921464848441</v>
+        <v>9.700915176786204</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.1528862746412</v>
+        <v>14.15288627464121</v>
       </c>
       <c r="K46" t="n">
-        <v>263.8914600849369</v>
+        <v>55.52762818017514</v>
       </c>
       <c r="L46" t="n">
-        <v>354.4180882302722</v>
+        <v>373.8004713744147</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2656336302334</v>
+        <v>89.15102111763227</v>
       </c>
       <c r="N46" t="n">
-        <v>90.24565151385453</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O46" t="n">
-        <v>75.04656584325835</v>
+        <v>393.3038985894609</v>
       </c>
       <c r="P46" t="n">
         <v>319.9500342623174</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.86936079737</v>
+        <v>16.31990604399917</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
